--- a/ComparisonTable.xlsx
+++ b/ComparisonTable.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{2AE4A1FE-FB67-4F05-BA68-55DEC09A8766}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{7EE7D7D3-21B5-48DB-8E26-FEB54C1D2EE6}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="140">
   <si>
     <t>Spec</t>
     <phoneticPr fontId="1"/>
@@ -862,6 +862,35 @@
     </rPh>
     <rPh sb="10" eb="12">
       <t>ソウシン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>IsEnabled</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ATS-PAS</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>無線情報</t>
+    <rPh sb="0" eb="2">
+      <t>ムセン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジョウホウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>IsDigital</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>番号(uI8)</t>
+    <rPh sb="0" eb="2">
+      <t>バンゴウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -965,16 +994,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1263,10 +1292,10 @@
   <dimension ref="A1:AH152"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C112" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C3" sqref="C3:F3"/>
+      <selection pane="bottomRight" activeCell="B122" sqref="B122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -1274,14 +1303,14 @@
     <col min="1" max="1" width="4.5" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.5" style="3" bestFit="1" customWidth="1"/>
     <col min="3" max="30" width="9.375" style="3" customWidth="1"/>
-    <col min="31" max="32" width="9.375" style="6" customWidth="1"/>
+    <col min="31" max="32" width="9.375" style="9" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:34">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="8"/>
+      <c r="B1" s="7"/>
       <c r="C1" s="4" t="s">
         <v>100</v>
       </c>
@@ -1314,16 +1343,16 @@
       <c r="AB1" s="5"/>
       <c r="AC1" s="5"/>
       <c r="AD1" s="5"/>
-      <c r="AE1" s="9" t="s">
+      <c r="AE1" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="AF1" s="8"/>
+      <c r="AF1" s="7"/>
     </row>
     <row r="2" spans="1:34">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="6"/>
+      <c r="B2" s="9"/>
       <c r="C2" s="2">
         <v>2</v>
       </c>
@@ -1453,39 +1482,39 @@
       <c r="B3" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6" t="s">
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="6"/>
-      <c r="K3" s="6"/>
-      <c r="L3" s="6"/>
-      <c r="M3" s="6"/>
-      <c r="N3" s="6"/>
-      <c r="O3" s="6"/>
-      <c r="P3" s="6"/>
-      <c r="Q3" s="6"/>
-      <c r="R3" s="6"/>
-      <c r="S3" s="6"/>
-      <c r="T3" s="6"/>
-      <c r="U3" s="6"/>
-      <c r="V3" s="6"/>
-      <c r="W3" s="6"/>
-      <c r="X3" s="6"/>
-      <c r="Y3" s="6"/>
-      <c r="Z3" s="6"/>
-      <c r="AA3" s="6"/>
-      <c r="AB3" s="6"/>
-      <c r="AC3" s="6"/>
-      <c r="AD3" s="6"/>
-      <c r="AE3" s="6" t="s">
+      <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="9"/>
+      <c r="K3" s="9"/>
+      <c r="L3" s="9"/>
+      <c r="M3" s="9"/>
+      <c r="N3" s="9"/>
+      <c r="O3" s="9"/>
+      <c r="P3" s="9"/>
+      <c r="Q3" s="9"/>
+      <c r="R3" s="9"/>
+      <c r="S3" s="9"/>
+      <c r="T3" s="9"/>
+      <c r="U3" s="9"/>
+      <c r="V3" s="9"/>
+      <c r="W3" s="9"/>
+      <c r="X3" s="9"/>
+      <c r="Y3" s="9"/>
+      <c r="Z3" s="9"/>
+      <c r="AA3" s="9"/>
+      <c r="AB3" s="9"/>
+      <c r="AC3" s="9"/>
+      <c r="AD3" s="9"/>
+      <c r="AE3" s="9" t="s">
         <v>124</v>
       </c>
     </row>
@@ -1497,36 +1526,36 @@
       <c r="B4" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6"/>
-      <c r="J4" s="6"/>
-      <c r="K4" s="6"/>
-      <c r="L4" s="6"/>
-      <c r="M4" s="6"/>
-      <c r="N4" s="6"/>
-      <c r="O4" s="6"/>
-      <c r="P4" s="6"/>
-      <c r="Q4" s="6"/>
-      <c r="R4" s="6"/>
-      <c r="S4" s="6"/>
-      <c r="T4" s="6"/>
-      <c r="U4" s="6"/>
-      <c r="V4" s="6"/>
-      <c r="W4" s="6"/>
-      <c r="X4" s="6"/>
-      <c r="Y4" s="6"/>
-      <c r="Z4" s="6"/>
-      <c r="AA4" s="6"/>
-      <c r="AB4" s="6"/>
-      <c r="AC4" s="6"/>
-      <c r="AD4" s="6"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="9"/>
+      <c r="K4" s="9"/>
+      <c r="L4" s="9"/>
+      <c r="M4" s="9"/>
+      <c r="N4" s="9"/>
+      <c r="O4" s="9"/>
+      <c r="P4" s="9"/>
+      <c r="Q4" s="9"/>
+      <c r="R4" s="9"/>
+      <c r="S4" s="9"/>
+      <c r="T4" s="9"/>
+      <c r="U4" s="9"/>
+      <c r="V4" s="9"/>
+      <c r="W4" s="9"/>
+      <c r="X4" s="9"/>
+      <c r="Y4" s="9"/>
+      <c r="Z4" s="9"/>
+      <c r="AA4" s="9"/>
+      <c r="AB4" s="9"/>
+      <c r="AC4" s="9"/>
+      <c r="AD4" s="9"/>
     </row>
     <row r="5" spans="1:34">
       <c r="A5" s="3">
@@ -1536,36 +1565,36 @@
       <c r="B5" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
-      <c r="J5" s="6"/>
-      <c r="K5" s="6"/>
-      <c r="L5" s="6"/>
-      <c r="M5" s="6"/>
-      <c r="N5" s="6"/>
-      <c r="O5" s="6"/>
-      <c r="P5" s="6"/>
-      <c r="Q5" s="6"/>
-      <c r="R5" s="6"/>
-      <c r="S5" s="6"/>
-      <c r="T5" s="6"/>
-      <c r="U5" s="6"/>
-      <c r="V5" s="6"/>
-      <c r="W5" s="6"/>
-      <c r="X5" s="6"/>
-      <c r="Y5" s="6"/>
-      <c r="Z5" s="6"/>
-      <c r="AA5" s="6"/>
-      <c r="AB5" s="6"/>
-      <c r="AC5" s="6"/>
-      <c r="AD5" s="6"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="9"/>
+      <c r="J5" s="9"/>
+      <c r="K5" s="9"/>
+      <c r="L5" s="9"/>
+      <c r="M5" s="9"/>
+      <c r="N5" s="9"/>
+      <c r="O5" s="9"/>
+      <c r="P5" s="9"/>
+      <c r="Q5" s="9"/>
+      <c r="R5" s="9"/>
+      <c r="S5" s="9"/>
+      <c r="T5" s="9"/>
+      <c r="U5" s="9"/>
+      <c r="V5" s="9"/>
+      <c r="W5" s="9"/>
+      <c r="X5" s="9"/>
+      <c r="Y5" s="9"/>
+      <c r="Z5" s="9"/>
+      <c r="AA5" s="9"/>
+      <c r="AB5" s="9"/>
+      <c r="AC5" s="9"/>
+      <c r="AD5" s="9"/>
     </row>
     <row r="6" spans="1:34">
       <c r="A6" s="3">
@@ -1575,36 +1604,36 @@
       <c r="B6" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
-      <c r="J6" s="6"/>
-      <c r="K6" s="6"/>
-      <c r="L6" s="6"/>
-      <c r="M6" s="6"/>
-      <c r="N6" s="6"/>
-      <c r="O6" s="6"/>
-      <c r="P6" s="6"/>
-      <c r="Q6" s="6"/>
-      <c r="R6" s="6"/>
-      <c r="S6" s="6"/>
-      <c r="T6" s="6"/>
-      <c r="U6" s="6"/>
-      <c r="V6" s="6"/>
-      <c r="W6" s="6"/>
-      <c r="X6" s="6"/>
-      <c r="Y6" s="6"/>
-      <c r="Z6" s="6"/>
-      <c r="AA6" s="6"/>
-      <c r="AB6" s="6"/>
-      <c r="AC6" s="6"/>
-      <c r="AD6" s="6"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9"/>
+      <c r="J6" s="9"/>
+      <c r="K6" s="9"/>
+      <c r="L6" s="9"/>
+      <c r="M6" s="9"/>
+      <c r="N6" s="9"/>
+      <c r="O6" s="9"/>
+      <c r="P6" s="9"/>
+      <c r="Q6" s="9"/>
+      <c r="R6" s="9"/>
+      <c r="S6" s="9"/>
+      <c r="T6" s="9"/>
+      <c r="U6" s="9"/>
+      <c r="V6" s="9"/>
+      <c r="W6" s="9"/>
+      <c r="X6" s="9"/>
+      <c r="Y6" s="9"/>
+      <c r="Z6" s="9"/>
+      <c r="AA6" s="9"/>
+      <c r="AB6" s="9"/>
+      <c r="AC6" s="9"/>
+      <c r="AD6" s="9"/>
     </row>
     <row r="7" spans="1:34">
       <c r="A7" s="3">
@@ -1614,46 +1643,46 @@
       <c r="B7" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6" t="s">
+      <c r="D7" s="9"/>
+      <c r="E7" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6" t="s">
+      <c r="F7" s="9"/>
+      <c r="G7" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6" t="s">
+      <c r="H7" s="9"/>
+      <c r="I7" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="J7" s="6"/>
+      <c r="J7" s="9"/>
       <c r="K7" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="L7" s="6" t="s">
+      <c r="L7" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="M7" s="6"/>
-      <c r="N7" s="6"/>
-      <c r="O7" s="6"/>
-      <c r="P7" s="6"/>
-      <c r="Q7" s="6"/>
-      <c r="R7" s="6"/>
-      <c r="S7" s="6"/>
-      <c r="T7" s="6"/>
-      <c r="U7" s="6"/>
-      <c r="V7" s="6"/>
-      <c r="W7" s="6"/>
-      <c r="X7" s="6"/>
-      <c r="Y7" s="6"/>
-      <c r="Z7" s="6"/>
-      <c r="AA7" s="6"/>
-      <c r="AB7" s="6"/>
-      <c r="AC7" s="6"/>
-      <c r="AD7" s="6"/>
+      <c r="M7" s="9"/>
+      <c r="N7" s="9"/>
+      <c r="O7" s="9"/>
+      <c r="P7" s="9"/>
+      <c r="Q7" s="9"/>
+      <c r="R7" s="9"/>
+      <c r="S7" s="9"/>
+      <c r="T7" s="9"/>
+      <c r="U7" s="9"/>
+      <c r="V7" s="9"/>
+      <c r="W7" s="9"/>
+      <c r="X7" s="9"/>
+      <c r="Y7" s="9"/>
+      <c r="Z7" s="9"/>
+      <c r="AA7" s="9"/>
+      <c r="AB7" s="9"/>
+      <c r="AC7" s="9"/>
+      <c r="AD7" s="9"/>
     </row>
     <row r="8" spans="1:34">
       <c r="A8" s="3">
@@ -1663,52 +1692,52 @@
       <c r="B8" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="6"/>
-      <c r="J8" s="6"/>
-      <c r="K8" s="6" t="s">
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="9"/>
+      <c r="J8" s="9"/>
+      <c r="K8" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="L8" s="6"/>
-      <c r="M8" s="6"/>
-      <c r="N8" s="6"/>
-      <c r="O8" s="6" t="s">
+      <c r="L8" s="9"/>
+      <c r="M8" s="9"/>
+      <c r="N8" s="9"/>
+      <c r="O8" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="P8" s="6"/>
-      <c r="Q8" s="6"/>
-      <c r="R8" s="6"/>
-      <c r="S8" s="6" t="s">
+      <c r="P8" s="9"/>
+      <c r="Q8" s="9"/>
+      <c r="R8" s="9"/>
+      <c r="S8" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="T8" s="6"/>
-      <c r="U8" s="6"/>
-      <c r="V8" s="6"/>
-      <c r="W8" s="6" t="s">
+      <c r="T8" s="9"/>
+      <c r="U8" s="9"/>
+      <c r="V8" s="9"/>
+      <c r="W8" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="X8" s="6"/>
-      <c r="Y8" s="6" t="s">
+      <c r="X8" s="9"/>
+      <c r="Y8" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="Z8" s="6"/>
+      <c r="Z8" s="9"/>
       <c r="AA8" s="2" t="s">
         <v>13</v>
       </c>
       <c r="AB8" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="AC8" s="6" t="s">
+      <c r="AC8" s="9" t="s">
         <v>122</v>
       </c>
-      <c r="AD8" s="6"/>
+      <c r="AD8" s="9"/>
     </row>
     <row r="9" spans="1:34">
       <c r="A9" s="3">
@@ -1718,43 +1747,43 @@
       <c r="B9" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6" t="s">
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="H9" s="6"/>
-      <c r="I9" s="6"/>
-      <c r="J9" s="6"/>
-      <c r="K9" s="6" t="s">
+      <c r="H9" s="9"/>
+      <c r="I9" s="9"/>
+      <c r="J9" s="9"/>
+      <c r="K9" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="L9" s="6"/>
-      <c r="M9" s="6"/>
-      <c r="N9" s="6"/>
-      <c r="O9" s="6" t="s">
+      <c r="L9" s="9"/>
+      <c r="M9" s="9"/>
+      <c r="N9" s="9"/>
+      <c r="O9" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="P9" s="6"/>
-      <c r="Q9" s="6"/>
-      <c r="R9" s="6"/>
-      <c r="S9" s="6" t="s">
+      <c r="P9" s="9"/>
+      <c r="Q9" s="9"/>
+      <c r="R9" s="9"/>
+      <c r="S9" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="T9" s="6"/>
-      <c r="U9" s="6"/>
-      <c r="V9" s="6"/>
+      <c r="T9" s="9"/>
+      <c r="U9" s="9"/>
+      <c r="V9" s="9"/>
       <c r="W9" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="X9" s="6" t="s">
+      <c r="X9" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="Y9" s="6"/>
+      <c r="Y9" s="9"/>
       <c r="Z9" s="2" t="s">
         <v>14</v>
       </c>
@@ -1764,10 +1793,10 @@
       <c r="AB9" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="AC9" s="6" t="s">
+      <c r="AC9" s="9" t="s">
         <v>123</v>
       </c>
-      <c r="AD9" s="6"/>
+      <c r="AD9" s="9"/>
     </row>
     <row r="10" spans="1:34">
       <c r="A10" s="3">
@@ -1777,46 +1806,46 @@
       <c r="B10" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C10" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="D10" s="6"/>
+      <c r="D10" s="9"/>
       <c r="E10" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="F10" s="6" t="s">
+      <c r="F10" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6" t="s">
+      <c r="G10" s="9"/>
+      <c r="H10" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="I10" s="6"/>
-      <c r="J10" s="6"/>
-      <c r="K10" s="6"/>
-      <c r="L10" s="6" t="s">
+      <c r="I10" s="9"/>
+      <c r="J10" s="9"/>
+      <c r="K10" s="9"/>
+      <c r="L10" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="M10" s="6"/>
-      <c r="N10" s="6"/>
-      <c r="O10" s="6"/>
-      <c r="P10" s="6" t="s">
+      <c r="M10" s="9"/>
+      <c r="N10" s="9"/>
+      <c r="O10" s="9"/>
+      <c r="P10" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="Q10" s="6"/>
-      <c r="R10" s="6"/>
-      <c r="S10" s="6"/>
-      <c r="T10" s="6"/>
-      <c r="U10" s="6"/>
-      <c r="V10" s="6"/>
-      <c r="W10" s="6"/>
-      <c r="X10" s="6"/>
-      <c r="Y10" s="6"/>
-      <c r="Z10" s="6"/>
-      <c r="AA10" s="6"/>
-      <c r="AB10" s="6"/>
-      <c r="AC10" s="6"/>
-      <c r="AD10" s="6"/>
+      <c r="Q10" s="9"/>
+      <c r="R10" s="9"/>
+      <c r="S10" s="9"/>
+      <c r="T10" s="9"/>
+      <c r="U10" s="9"/>
+      <c r="V10" s="9"/>
+      <c r="W10" s="9"/>
+      <c r="X10" s="9"/>
+      <c r="Y10" s="9"/>
+      <c r="Z10" s="9"/>
+      <c r="AA10" s="9"/>
+      <c r="AB10" s="9"/>
+      <c r="AC10" s="9"/>
+      <c r="AD10" s="9"/>
     </row>
     <row r="11" spans="1:34">
       <c r="A11" s="3">
@@ -1826,36 +1855,36 @@
       <c r="B11" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C11" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
-      <c r="I11" s="6"/>
-      <c r="J11" s="6"/>
-      <c r="K11" s="6"/>
-      <c r="L11" s="6"/>
-      <c r="M11" s="6"/>
-      <c r="N11" s="6"/>
-      <c r="O11" s="6"/>
-      <c r="P11" s="6"/>
-      <c r="Q11" s="6"/>
-      <c r="R11" s="6"/>
-      <c r="S11" s="6"/>
-      <c r="T11" s="6"/>
-      <c r="U11" s="6"/>
-      <c r="V11" s="6"/>
-      <c r="W11" s="6"/>
-      <c r="X11" s="6"/>
-      <c r="Y11" s="6"/>
-      <c r="Z11" s="6"/>
-      <c r="AA11" s="6"/>
-      <c r="AB11" s="6"/>
-      <c r="AC11" s="6"/>
-      <c r="AD11" s="6"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="9"/>
+      <c r="J11" s="9"/>
+      <c r="K11" s="9"/>
+      <c r="L11" s="9"/>
+      <c r="M11" s="9"/>
+      <c r="N11" s="9"/>
+      <c r="O11" s="9"/>
+      <c r="P11" s="9"/>
+      <c r="Q11" s="9"/>
+      <c r="R11" s="9"/>
+      <c r="S11" s="9"/>
+      <c r="T11" s="9"/>
+      <c r="U11" s="9"/>
+      <c r="V11" s="9"/>
+      <c r="W11" s="9"/>
+      <c r="X11" s="9"/>
+      <c r="Y11" s="9"/>
+      <c r="Z11" s="9"/>
+      <c r="AA11" s="9"/>
+      <c r="AB11" s="9"/>
+      <c r="AC11" s="9"/>
+      <c r="AD11" s="9"/>
     </row>
     <row r="12" spans="1:34">
       <c r="A12" s="3">
@@ -1865,36 +1894,36 @@
       <c r="B12" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C12" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
-      <c r="I12" s="6"/>
-      <c r="J12" s="6"/>
-      <c r="K12" s="6"/>
-      <c r="L12" s="6"/>
-      <c r="M12" s="6"/>
-      <c r="N12" s="6"/>
-      <c r="O12" s="6"/>
-      <c r="P12" s="6"/>
-      <c r="Q12" s="6"/>
-      <c r="R12" s="6"/>
-      <c r="S12" s="6"/>
-      <c r="T12" s="6"/>
-      <c r="U12" s="6"/>
-      <c r="V12" s="6"/>
-      <c r="W12" s="6"/>
-      <c r="X12" s="6"/>
-      <c r="Y12" s="6"/>
-      <c r="Z12" s="6"/>
-      <c r="AA12" s="6"/>
-      <c r="AB12" s="6"/>
-      <c r="AC12" s="6"/>
-      <c r="AD12" s="6"/>
+      <c r="C12" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="9"/>
+      <c r="J12" s="9"/>
+      <c r="K12" s="9"/>
+      <c r="L12" s="9"/>
+      <c r="M12" s="9"/>
+      <c r="N12" s="9"/>
+      <c r="O12" s="9"/>
+      <c r="P12" s="9"/>
+      <c r="Q12" s="9"/>
+      <c r="R12" s="9"/>
+      <c r="S12" s="9"/>
+      <c r="T12" s="9"/>
+      <c r="U12" s="9"/>
+      <c r="V12" s="9"/>
+      <c r="W12" s="9"/>
+      <c r="X12" s="9"/>
+      <c r="Y12" s="9"/>
+      <c r="Z12" s="9"/>
+      <c r="AA12" s="9"/>
+      <c r="AB12" s="9"/>
+      <c r="AC12" s="9"/>
+      <c r="AD12" s="9"/>
     </row>
     <row r="13" spans="1:34">
       <c r="A13" s="3">
@@ -1904,44 +1933,44 @@
       <c r="B13" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C13" s="7" t="s">
+      <c r="C13" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="D13" s="8"/>
-      <c r="E13" s="7" t="s">
+      <c r="D13" s="7"/>
+      <c r="E13" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="F13" s="8"/>
-      <c r="G13" s="7" t="s">
+      <c r="F13" s="7"/>
+      <c r="G13" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="H13" s="8"/>
-      <c r="I13" s="7" t="s">
+      <c r="H13" s="7"/>
+      <c r="I13" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="J13" s="8"/>
-      <c r="K13" s="7" t="s">
+      <c r="J13" s="7"/>
+      <c r="K13" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="L13" s="9"/>
-      <c r="M13" s="9"/>
-      <c r="N13" s="9"/>
-      <c r="O13" s="9"/>
-      <c r="P13" s="9"/>
-      <c r="Q13" s="9"/>
-      <c r="R13" s="9"/>
-      <c r="S13" s="9"/>
-      <c r="T13" s="9"/>
-      <c r="U13" s="9"/>
-      <c r="V13" s="9"/>
-      <c r="W13" s="9"/>
-      <c r="X13" s="9"/>
-      <c r="Y13" s="9"/>
-      <c r="Z13" s="9"/>
-      <c r="AA13" s="9"/>
-      <c r="AB13" s="9"/>
-      <c r="AC13" s="9"/>
-      <c r="AD13" s="8"/>
+      <c r="L13" s="6"/>
+      <c r="M13" s="6"/>
+      <c r="N13" s="6"/>
+      <c r="O13" s="6"/>
+      <c r="P13" s="6"/>
+      <c r="Q13" s="6"/>
+      <c r="R13" s="6"/>
+      <c r="S13" s="6"/>
+      <c r="T13" s="6"/>
+      <c r="U13" s="6"/>
+      <c r="V13" s="6"/>
+      <c r="W13" s="6"/>
+      <c r="X13" s="6"/>
+      <c r="Y13" s="6"/>
+      <c r="Z13" s="6"/>
+      <c r="AA13" s="6"/>
+      <c r="AB13" s="6"/>
+      <c r="AC13" s="6"/>
+      <c r="AD13" s="7"/>
     </row>
     <row r="14" spans="1:34">
       <c r="A14" s="3">
@@ -1951,44 +1980,44 @@
       <c r="B14" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="C14" s="7" t="s">
+      <c r="C14" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="D14" s="8"/>
-      <c r="E14" s="7" t="s">
+      <c r="D14" s="7"/>
+      <c r="E14" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="F14" s="8"/>
-      <c r="G14" s="7" t="s">
+      <c r="F14" s="7"/>
+      <c r="G14" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="H14" s="8"/>
-      <c r="I14" s="7" t="s">
+      <c r="H14" s="7"/>
+      <c r="I14" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="J14" s="8"/>
-      <c r="K14" s="7" t="s">
+      <c r="J14" s="7"/>
+      <c r="K14" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="L14" s="9"/>
-      <c r="M14" s="9"/>
-      <c r="N14" s="9"/>
-      <c r="O14" s="9"/>
-      <c r="P14" s="9"/>
-      <c r="Q14" s="9"/>
-      <c r="R14" s="9"/>
-      <c r="S14" s="9"/>
-      <c r="T14" s="9"/>
-      <c r="U14" s="9"/>
-      <c r="V14" s="9"/>
-      <c r="W14" s="9"/>
-      <c r="X14" s="9"/>
-      <c r="Y14" s="9"/>
-      <c r="Z14" s="9"/>
-      <c r="AA14" s="9"/>
-      <c r="AB14" s="9"/>
-      <c r="AC14" s="9"/>
-      <c r="AD14" s="8"/>
+      <c r="L14" s="6"/>
+      <c r="M14" s="6"/>
+      <c r="N14" s="6"/>
+      <c r="O14" s="6"/>
+      <c r="P14" s="6"/>
+      <c r="Q14" s="6"/>
+      <c r="R14" s="6"/>
+      <c r="S14" s="6"/>
+      <c r="T14" s="6"/>
+      <c r="U14" s="6"/>
+      <c r="V14" s="6"/>
+      <c r="W14" s="6"/>
+      <c r="X14" s="6"/>
+      <c r="Y14" s="6"/>
+      <c r="Z14" s="6"/>
+      <c r="AA14" s="6"/>
+      <c r="AB14" s="6"/>
+      <c r="AC14" s="6"/>
+      <c r="AD14" s="7"/>
     </row>
     <row r="15" spans="1:34">
       <c r="A15" s="3">
@@ -2010,34 +2039,34 @@
       <c r="F15" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G15" s="6" t="s">
+      <c r="G15" s="9" t="s">
         <v>113</v>
       </c>
-      <c r="H15" s="6"/>
-      <c r="I15" s="6"/>
-      <c r="J15" s="6"/>
-      <c r="K15" s="6"/>
-      <c r="L15" s="6"/>
-      <c r="M15" s="6"/>
-      <c r="N15" s="6"/>
-      <c r="O15" s="6"/>
-      <c r="P15" s="6"/>
-      <c r="Q15" s="6"/>
-      <c r="R15" s="6"/>
-      <c r="S15" s="6"/>
-      <c r="T15" s="6"/>
-      <c r="U15" s="6"/>
-      <c r="V15" s="6"/>
-      <c r="W15" s="6" t="s">
+      <c r="H15" s="9"/>
+      <c r="I15" s="9"/>
+      <c r="J15" s="9"/>
+      <c r="K15" s="9"/>
+      <c r="L15" s="9"/>
+      <c r="M15" s="9"/>
+      <c r="N15" s="9"/>
+      <c r="O15" s="9"/>
+      <c r="P15" s="9"/>
+      <c r="Q15" s="9"/>
+      <c r="R15" s="9"/>
+      <c r="S15" s="9"/>
+      <c r="T15" s="9"/>
+      <c r="U15" s="9"/>
+      <c r="V15" s="9"/>
+      <c r="W15" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="X15" s="6"/>
-      <c r="Y15" s="6"/>
-      <c r="Z15" s="6"/>
-      <c r="AA15" s="6"/>
-      <c r="AB15" s="6"/>
-      <c r="AC15" s="6"/>
-      <c r="AD15" s="6"/>
+      <c r="X15" s="9"/>
+      <c r="Y15" s="9"/>
+      <c r="Z15" s="9"/>
+      <c r="AA15" s="9"/>
+      <c r="AB15" s="9"/>
+      <c r="AC15" s="9"/>
+      <c r="AD15" s="9"/>
     </row>
     <row r="16" spans="1:34">
       <c r="A16" s="3">
@@ -2047,36 +2076,36 @@
       <c r="B16" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="C16" s="6" t="s">
+      <c r="C16" s="9" t="s">
         <v>129</v>
       </c>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="6"/>
-      <c r="H16" s="6"/>
-      <c r="I16" s="6"/>
-      <c r="J16" s="6"/>
-      <c r="K16" s="6"/>
-      <c r="L16" s="6"/>
-      <c r="M16" s="6"/>
-      <c r="N16" s="6"/>
-      <c r="O16" s="6"/>
-      <c r="P16" s="6"/>
-      <c r="Q16" s="6"/>
-      <c r="R16" s="6"/>
-      <c r="S16" s="6"/>
-      <c r="T16" s="6"/>
-      <c r="U16" s="6"/>
-      <c r="V16" s="6"/>
-      <c r="W16" s="6"/>
-      <c r="X16" s="6"/>
-      <c r="Y16" s="6"/>
-      <c r="Z16" s="6"/>
-      <c r="AA16" s="6"/>
-      <c r="AB16" s="6"/>
-      <c r="AC16" s="6"/>
-      <c r="AD16" s="6"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="9"/>
+      <c r="I16" s="9"/>
+      <c r="J16" s="9"/>
+      <c r="K16" s="9"/>
+      <c r="L16" s="9"/>
+      <c r="M16" s="9"/>
+      <c r="N16" s="9"/>
+      <c r="O16" s="9"/>
+      <c r="P16" s="9"/>
+      <c r="Q16" s="9"/>
+      <c r="R16" s="9"/>
+      <c r="S16" s="9"/>
+      <c r="T16" s="9"/>
+      <c r="U16" s="9"/>
+      <c r="V16" s="9"/>
+      <c r="W16" s="9"/>
+      <c r="X16" s="9"/>
+      <c r="Y16" s="9"/>
+      <c r="Z16" s="9"/>
+      <c r="AA16" s="9"/>
+      <c r="AB16" s="9"/>
+      <c r="AC16" s="9"/>
+      <c r="AD16" s="9"/>
     </row>
     <row r="17" spans="1:30">
       <c r="A17" s="3">
@@ -2086,36 +2115,36 @@
       <c r="B17" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C17" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="6"/>
-      <c r="H17" s="6"/>
-      <c r="I17" s="6"/>
-      <c r="J17" s="6"/>
-      <c r="K17" s="6"/>
-      <c r="L17" s="6"/>
-      <c r="M17" s="6"/>
-      <c r="N17" s="6"/>
-      <c r="O17" s="6"/>
-      <c r="P17" s="6"/>
-      <c r="Q17" s="6"/>
-      <c r="R17" s="6"/>
-      <c r="S17" s="6"/>
-      <c r="T17" s="6"/>
-      <c r="U17" s="6"/>
-      <c r="V17" s="6"/>
-      <c r="W17" s="6"/>
-      <c r="X17" s="6"/>
-      <c r="Y17" s="6"/>
-      <c r="Z17" s="6"/>
-      <c r="AA17" s="6"/>
-      <c r="AB17" s="6"/>
-      <c r="AC17" s="6"/>
-      <c r="AD17" s="6"/>
+      <c r="C17" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="9"/>
+      <c r="H17" s="9"/>
+      <c r="I17" s="9"/>
+      <c r="J17" s="9"/>
+      <c r="K17" s="9"/>
+      <c r="L17" s="9"/>
+      <c r="M17" s="9"/>
+      <c r="N17" s="9"/>
+      <c r="O17" s="9"/>
+      <c r="P17" s="9"/>
+      <c r="Q17" s="9"/>
+      <c r="R17" s="9"/>
+      <c r="S17" s="9"/>
+      <c r="T17" s="9"/>
+      <c r="U17" s="9"/>
+      <c r="V17" s="9"/>
+      <c r="W17" s="9"/>
+      <c r="X17" s="9"/>
+      <c r="Y17" s="9"/>
+      <c r="Z17" s="9"/>
+      <c r="AA17" s="9"/>
+      <c r="AB17" s="9"/>
+      <c r="AC17" s="9"/>
+      <c r="AD17" s="9"/>
     </row>
     <row r="18" spans="1:30">
       <c r="A18" s="3">
@@ -2125,36 +2154,36 @@
       <c r="B18" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C18" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6"/>
-      <c r="G18" s="6"/>
-      <c r="H18" s="6"/>
-      <c r="I18" s="6"/>
-      <c r="J18" s="6"/>
-      <c r="K18" s="6"/>
-      <c r="L18" s="6"/>
-      <c r="M18" s="6"/>
-      <c r="N18" s="6"/>
-      <c r="O18" s="6"/>
-      <c r="P18" s="6"/>
-      <c r="Q18" s="6"/>
-      <c r="R18" s="6"/>
-      <c r="S18" s="6"/>
-      <c r="T18" s="6"/>
-      <c r="U18" s="6"/>
-      <c r="V18" s="6"/>
-      <c r="W18" s="6"/>
-      <c r="X18" s="6"/>
-      <c r="Y18" s="6"/>
-      <c r="Z18" s="6"/>
-      <c r="AA18" s="6"/>
-      <c r="AB18" s="6"/>
-      <c r="AC18" s="6"/>
-      <c r="AD18" s="6"/>
+      <c r="C18" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="D18" s="9"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="9"/>
+      <c r="H18" s="9"/>
+      <c r="I18" s="9"/>
+      <c r="J18" s="9"/>
+      <c r="K18" s="9"/>
+      <c r="L18" s="9"/>
+      <c r="M18" s="9"/>
+      <c r="N18" s="9"/>
+      <c r="O18" s="9"/>
+      <c r="P18" s="9"/>
+      <c r="Q18" s="9"/>
+      <c r="R18" s="9"/>
+      <c r="S18" s="9"/>
+      <c r="T18" s="9"/>
+      <c r="U18" s="9"/>
+      <c r="V18" s="9"/>
+      <c r="W18" s="9"/>
+      <c r="X18" s="9"/>
+      <c r="Y18" s="9"/>
+      <c r="Z18" s="9"/>
+      <c r="AA18" s="9"/>
+      <c r="AB18" s="9"/>
+      <c r="AC18" s="9"/>
+      <c r="AD18" s="9"/>
     </row>
     <row r="19" spans="1:30">
       <c r="A19" s="3">
@@ -2164,36 +2193,36 @@
       <c r="B19" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C19" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="6"/>
-      <c r="H19" s="6"/>
-      <c r="I19" s="6"/>
-      <c r="J19" s="6"/>
-      <c r="K19" s="6"/>
-      <c r="L19" s="6"/>
-      <c r="M19" s="6"/>
-      <c r="N19" s="6"/>
-      <c r="O19" s="6"/>
-      <c r="P19" s="6"/>
-      <c r="Q19" s="6"/>
-      <c r="R19" s="6"/>
-      <c r="S19" s="6"/>
-      <c r="T19" s="6"/>
-      <c r="U19" s="6"/>
-      <c r="V19" s="6"/>
-      <c r="W19" s="6"/>
-      <c r="X19" s="6"/>
-      <c r="Y19" s="6"/>
-      <c r="Z19" s="6"/>
-      <c r="AA19" s="6"/>
-      <c r="AB19" s="6"/>
-      <c r="AC19" s="6"/>
-      <c r="AD19" s="6"/>
+      <c r="C19" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="D19" s="9"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="9"/>
+      <c r="H19" s="9"/>
+      <c r="I19" s="9"/>
+      <c r="J19" s="9"/>
+      <c r="K19" s="9"/>
+      <c r="L19" s="9"/>
+      <c r="M19" s="9"/>
+      <c r="N19" s="9"/>
+      <c r="O19" s="9"/>
+      <c r="P19" s="9"/>
+      <c r="Q19" s="9"/>
+      <c r="R19" s="9"/>
+      <c r="S19" s="9"/>
+      <c r="T19" s="9"/>
+      <c r="U19" s="9"/>
+      <c r="V19" s="9"/>
+      <c r="W19" s="9"/>
+      <c r="X19" s="9"/>
+      <c r="Y19" s="9"/>
+      <c r="Z19" s="9"/>
+      <c r="AA19" s="9"/>
+      <c r="AB19" s="9"/>
+      <c r="AC19" s="9"/>
+      <c r="AD19" s="9"/>
     </row>
     <row r="20" spans="1:30">
       <c r="A20" s="3">
@@ -2203,36 +2232,36 @@
       <c r="B20" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C20" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="6"/>
-      <c r="H20" s="6"/>
-      <c r="I20" s="6"/>
-      <c r="J20" s="6"/>
-      <c r="K20" s="6"/>
-      <c r="L20" s="6"/>
-      <c r="M20" s="6"/>
-      <c r="N20" s="6"/>
-      <c r="O20" s="6"/>
-      <c r="P20" s="6"/>
-      <c r="Q20" s="6"/>
-      <c r="R20" s="6"/>
-      <c r="S20" s="6"/>
-      <c r="T20" s="6"/>
-      <c r="U20" s="6"/>
-      <c r="V20" s="6"/>
-      <c r="W20" s="6"/>
-      <c r="X20" s="6"/>
-      <c r="Y20" s="6"/>
-      <c r="Z20" s="6"/>
-      <c r="AA20" s="6"/>
-      <c r="AB20" s="6"/>
-      <c r="AC20" s="6"/>
-      <c r="AD20" s="6"/>
+      <c r="C20" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="9"/>
+      <c r="H20" s="9"/>
+      <c r="I20" s="9"/>
+      <c r="J20" s="9"/>
+      <c r="K20" s="9"/>
+      <c r="L20" s="9"/>
+      <c r="M20" s="9"/>
+      <c r="N20" s="9"/>
+      <c r="O20" s="9"/>
+      <c r="P20" s="9"/>
+      <c r="Q20" s="9"/>
+      <c r="R20" s="9"/>
+      <c r="S20" s="9"/>
+      <c r="T20" s="9"/>
+      <c r="U20" s="9"/>
+      <c r="V20" s="9"/>
+      <c r="W20" s="9"/>
+      <c r="X20" s="9"/>
+      <c r="Y20" s="9"/>
+      <c r="Z20" s="9"/>
+      <c r="AA20" s="9"/>
+      <c r="AB20" s="9"/>
+      <c r="AC20" s="9"/>
+      <c r="AD20" s="9"/>
     </row>
     <row r="21" spans="1:30">
       <c r="A21" s="3">
@@ -2242,36 +2271,36 @@
       <c r="B21" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C21" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="D21" s="6"/>
-      <c r="E21" s="6"/>
-      <c r="F21" s="6"/>
-      <c r="G21" s="6"/>
-      <c r="H21" s="6"/>
-      <c r="I21" s="6"/>
-      <c r="J21" s="6"/>
-      <c r="K21" s="6"/>
-      <c r="L21" s="6"/>
-      <c r="M21" s="6"/>
-      <c r="N21" s="6"/>
-      <c r="O21" s="6"/>
-      <c r="P21" s="6"/>
-      <c r="Q21" s="6"/>
-      <c r="R21" s="6"/>
-      <c r="S21" s="6"/>
-      <c r="T21" s="6"/>
-      <c r="U21" s="6"/>
-      <c r="V21" s="6"/>
-      <c r="W21" s="6"/>
-      <c r="X21" s="6"/>
-      <c r="Y21" s="6"/>
-      <c r="Z21" s="6"/>
-      <c r="AA21" s="6"/>
-      <c r="AB21" s="6"/>
-      <c r="AC21" s="6"/>
-      <c r="AD21" s="6"/>
+      <c r="C21" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="D21" s="9"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="9"/>
+      <c r="H21" s="9"/>
+      <c r="I21" s="9"/>
+      <c r="J21" s="9"/>
+      <c r="K21" s="9"/>
+      <c r="L21" s="9"/>
+      <c r="M21" s="9"/>
+      <c r="N21" s="9"/>
+      <c r="O21" s="9"/>
+      <c r="P21" s="9"/>
+      <c r="Q21" s="9"/>
+      <c r="R21" s="9"/>
+      <c r="S21" s="9"/>
+      <c r="T21" s="9"/>
+      <c r="U21" s="9"/>
+      <c r="V21" s="9"/>
+      <c r="W21" s="9"/>
+      <c r="X21" s="9"/>
+      <c r="Y21" s="9"/>
+      <c r="Z21" s="9"/>
+      <c r="AA21" s="9"/>
+      <c r="AB21" s="9"/>
+      <c r="AC21" s="9"/>
+      <c r="AD21" s="9"/>
     </row>
     <row r="22" spans="1:30">
       <c r="A22" s="3">
@@ -2281,36 +2310,36 @@
       <c r="B22" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C22" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="D22" s="6"/>
-      <c r="E22" s="6"/>
-      <c r="F22" s="6"/>
-      <c r="G22" s="6"/>
-      <c r="H22" s="6"/>
-      <c r="I22" s="6"/>
-      <c r="J22" s="6"/>
-      <c r="K22" s="6"/>
-      <c r="L22" s="6"/>
-      <c r="M22" s="6"/>
-      <c r="N22" s="6"/>
-      <c r="O22" s="6"/>
-      <c r="P22" s="6"/>
-      <c r="Q22" s="6"/>
-      <c r="R22" s="6"/>
-      <c r="S22" s="6"/>
-      <c r="T22" s="6"/>
-      <c r="U22" s="6"/>
-      <c r="V22" s="6"/>
-      <c r="W22" s="6"/>
-      <c r="X22" s="6"/>
-      <c r="Y22" s="6"/>
-      <c r="Z22" s="6"/>
-      <c r="AA22" s="6"/>
-      <c r="AB22" s="6"/>
-      <c r="AC22" s="6"/>
-      <c r="AD22" s="6"/>
+      <c r="C22" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="D22" s="9"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="9"/>
+      <c r="H22" s="9"/>
+      <c r="I22" s="9"/>
+      <c r="J22" s="9"/>
+      <c r="K22" s="9"/>
+      <c r="L22" s="9"/>
+      <c r="M22" s="9"/>
+      <c r="N22" s="9"/>
+      <c r="O22" s="9"/>
+      <c r="P22" s="9"/>
+      <c r="Q22" s="9"/>
+      <c r="R22" s="9"/>
+      <c r="S22" s="9"/>
+      <c r="T22" s="9"/>
+      <c r="U22" s="9"/>
+      <c r="V22" s="9"/>
+      <c r="W22" s="9"/>
+      <c r="X22" s="9"/>
+      <c r="Y22" s="9"/>
+      <c r="Z22" s="9"/>
+      <c r="AA22" s="9"/>
+      <c r="AB22" s="9"/>
+      <c r="AC22" s="9"/>
+      <c r="AD22" s="9"/>
     </row>
     <row r="23" spans="1:30">
       <c r="A23" s="3">
@@ -2321,7 +2350,7 @@
         <v>48</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>74</v>
+        <v>135</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
@@ -2359,6 +2388,9 @@
       <c r="B24" s="3" t="s">
         <v>49</v>
       </c>
+      <c r="C24" s="2" t="s">
+        <v>135</v>
+      </c>
     </row>
     <row r="25" spans="1:30">
       <c r="A25" s="3">
@@ -2368,6 +2400,9 @@
       <c r="B25" s="3" t="s">
         <v>50</v>
       </c>
+      <c r="C25" s="2" t="s">
+        <v>135</v>
+      </c>
     </row>
     <row r="26" spans="1:30">
       <c r="A26" s="3">
@@ -2377,36 +2412,36 @@
       <c r="B26" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C26" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="D26" s="6"/>
-      <c r="E26" s="6"/>
-      <c r="F26" s="6"/>
-      <c r="G26" s="6"/>
-      <c r="H26" s="6"/>
-      <c r="I26" s="6"/>
-      <c r="J26" s="6"/>
-      <c r="K26" s="6"/>
-      <c r="L26" s="6"/>
-      <c r="M26" s="6"/>
-      <c r="N26" s="6"/>
-      <c r="O26" s="6"/>
-      <c r="P26" s="6"/>
-      <c r="Q26" s="6"/>
-      <c r="R26" s="6"/>
-      <c r="S26" s="6"/>
-      <c r="T26" s="6"/>
-      <c r="U26" s="6"/>
-      <c r="V26" s="6"/>
-      <c r="W26" s="6"/>
-      <c r="X26" s="6"/>
-      <c r="Y26" s="6"/>
-      <c r="Z26" s="6"/>
-      <c r="AA26" s="6"/>
-      <c r="AB26" s="6"/>
-      <c r="AC26" s="6"/>
-      <c r="AD26" s="6"/>
+      <c r="C26" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="D26" s="9"/>
+      <c r="E26" s="9"/>
+      <c r="F26" s="9"/>
+      <c r="G26" s="9"/>
+      <c r="H26" s="9"/>
+      <c r="I26" s="9"/>
+      <c r="J26" s="9"/>
+      <c r="K26" s="9"/>
+      <c r="L26" s="9"/>
+      <c r="M26" s="9"/>
+      <c r="N26" s="9"/>
+      <c r="O26" s="9"/>
+      <c r="P26" s="9"/>
+      <c r="Q26" s="9"/>
+      <c r="R26" s="9"/>
+      <c r="S26" s="9"/>
+      <c r="T26" s="9"/>
+      <c r="U26" s="9"/>
+      <c r="V26" s="9"/>
+      <c r="W26" s="9"/>
+      <c r="X26" s="9"/>
+      <c r="Y26" s="9"/>
+      <c r="Z26" s="9"/>
+      <c r="AA26" s="9"/>
+      <c r="AB26" s="9"/>
+      <c r="AC26" s="9"/>
+      <c r="AD26" s="9"/>
     </row>
     <row r="27" spans="1:30">
       <c r="A27" s="3">
@@ -2416,6 +2451,9 @@
       <c r="B27" s="3" t="s">
         <v>51</v>
       </c>
+      <c r="C27" s="2" t="s">
+        <v>135</v>
+      </c>
     </row>
     <row r="28" spans="1:30">
       <c r="A28" s="3">
@@ -2425,6 +2463,9 @@
       <c r="B28" s="3" t="s">
         <v>52</v>
       </c>
+      <c r="C28" s="2" t="s">
+        <v>135</v>
+      </c>
     </row>
     <row r="29" spans="1:30">
       <c r="A29" s="3">
@@ -2434,6 +2475,9 @@
       <c r="B29" s="3" t="s">
         <v>53</v>
       </c>
+      <c r="C29" s="2" t="s">
+        <v>135</v>
+      </c>
     </row>
     <row r="30" spans="1:30">
       <c r="A30" s="3">
@@ -2443,6 +2487,9 @@
       <c r="B30" s="3" t="s">
         <v>54</v>
       </c>
+      <c r="C30" s="2" t="s">
+        <v>135</v>
+      </c>
     </row>
     <row r="31" spans="1:30">
       <c r="A31" s="3">
@@ -2452,6 +2499,9 @@
       <c r="B31" s="3" t="s">
         <v>55</v>
       </c>
+      <c r="C31" s="2" t="s">
+        <v>135</v>
+      </c>
     </row>
     <row r="32" spans="1:30">
       <c r="A32" s="3">
@@ -2461,6 +2511,9 @@
       <c r="B32" s="3" t="s">
         <v>56</v>
       </c>
+      <c r="C32" s="2" t="s">
+        <v>135</v>
+      </c>
     </row>
     <row r="33" spans="1:30">
       <c r="A33" s="3">
@@ -2470,36 +2523,36 @@
       <c r="B33" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C33" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="D33" s="6"/>
-      <c r="E33" s="6"/>
-      <c r="F33" s="6"/>
-      <c r="G33" s="6"/>
-      <c r="H33" s="6"/>
-      <c r="I33" s="6"/>
-      <c r="J33" s="6"/>
-      <c r="K33" s="6"/>
-      <c r="L33" s="6"/>
-      <c r="M33" s="6"/>
-      <c r="N33" s="6"/>
-      <c r="O33" s="6"/>
-      <c r="P33" s="6"/>
-      <c r="Q33" s="6"/>
-      <c r="R33" s="6"/>
-      <c r="S33" s="6"/>
-      <c r="T33" s="6"/>
-      <c r="U33" s="6"/>
-      <c r="V33" s="6"/>
-      <c r="W33" s="6"/>
-      <c r="X33" s="6"/>
-      <c r="Y33" s="6"/>
-      <c r="Z33" s="6"/>
-      <c r="AA33" s="6"/>
-      <c r="AB33" s="6"/>
-      <c r="AC33" s="6"/>
-      <c r="AD33" s="6"/>
+      <c r="C33" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="D33" s="9"/>
+      <c r="E33" s="9"/>
+      <c r="F33" s="9"/>
+      <c r="G33" s="9"/>
+      <c r="H33" s="9"/>
+      <c r="I33" s="9"/>
+      <c r="J33" s="9"/>
+      <c r="K33" s="9"/>
+      <c r="L33" s="9"/>
+      <c r="M33" s="9"/>
+      <c r="N33" s="9"/>
+      <c r="O33" s="9"/>
+      <c r="P33" s="9"/>
+      <c r="Q33" s="9"/>
+      <c r="R33" s="9"/>
+      <c r="S33" s="9"/>
+      <c r="T33" s="9"/>
+      <c r="U33" s="9"/>
+      <c r="V33" s="9"/>
+      <c r="W33" s="9"/>
+      <c r="X33" s="9"/>
+      <c r="Y33" s="9"/>
+      <c r="Z33" s="9"/>
+      <c r="AA33" s="9"/>
+      <c r="AB33" s="9"/>
+      <c r="AC33" s="9"/>
+      <c r="AD33" s="9"/>
     </row>
     <row r="34" spans="1:30">
       <c r="A34" s="3">
@@ -2509,6 +2562,9 @@
       <c r="B34" s="3" t="s">
         <v>57</v>
       </c>
+      <c r="C34" s="2" t="s">
+        <v>135</v>
+      </c>
     </row>
     <row r="35" spans="1:30">
       <c r="A35" s="3">
@@ -2518,6 +2574,9 @@
       <c r="B35" s="3" t="s">
         <v>59</v>
       </c>
+      <c r="C35" s="2" t="s">
+        <v>135</v>
+      </c>
     </row>
     <row r="36" spans="1:30">
       <c r="A36" s="3">
@@ -2527,6 +2586,9 @@
       <c r="B36" s="3" t="s">
         <v>58</v>
       </c>
+      <c r="C36" s="2" t="s">
+        <v>135</v>
+      </c>
     </row>
     <row r="37" spans="1:30">
       <c r="A37" s="3">
@@ -2536,6 +2598,9 @@
       <c r="B37" s="3" t="s">
         <v>60</v>
       </c>
+      <c r="C37" s="2" t="s">
+        <v>135</v>
+      </c>
     </row>
     <row r="38" spans="1:30">
       <c r="A38" s="3">
@@ -2545,36 +2610,36 @@
       <c r="B38" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C38" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="D38" s="6"/>
-      <c r="E38" s="6"/>
-      <c r="F38" s="6"/>
-      <c r="G38" s="6"/>
-      <c r="H38" s="6"/>
-      <c r="I38" s="6"/>
-      <c r="J38" s="6"/>
-      <c r="K38" s="6"/>
-      <c r="L38" s="6"/>
-      <c r="M38" s="6"/>
-      <c r="N38" s="6"/>
-      <c r="O38" s="6"/>
-      <c r="P38" s="6"/>
-      <c r="Q38" s="6"/>
-      <c r="R38" s="6"/>
-      <c r="S38" s="6"/>
-      <c r="T38" s="6"/>
-      <c r="U38" s="6"/>
-      <c r="V38" s="6"/>
-      <c r="W38" s="6"/>
-      <c r="X38" s="6"/>
-      <c r="Y38" s="6"/>
-      <c r="Z38" s="6"/>
-      <c r="AA38" s="6"/>
-      <c r="AB38" s="6"/>
-      <c r="AC38" s="6"/>
-      <c r="AD38" s="6"/>
+      <c r="C38" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="D38" s="9"/>
+      <c r="E38" s="9"/>
+      <c r="F38" s="9"/>
+      <c r="G38" s="9"/>
+      <c r="H38" s="9"/>
+      <c r="I38" s="9"/>
+      <c r="J38" s="9"/>
+      <c r="K38" s="9"/>
+      <c r="L38" s="9"/>
+      <c r="M38" s="9"/>
+      <c r="N38" s="9"/>
+      <c r="O38" s="9"/>
+      <c r="P38" s="9"/>
+      <c r="Q38" s="9"/>
+      <c r="R38" s="9"/>
+      <c r="S38" s="9"/>
+      <c r="T38" s="9"/>
+      <c r="U38" s="9"/>
+      <c r="V38" s="9"/>
+      <c r="W38" s="9"/>
+      <c r="X38" s="9"/>
+      <c r="Y38" s="9"/>
+      <c r="Z38" s="9"/>
+      <c r="AA38" s="9"/>
+      <c r="AB38" s="9"/>
+      <c r="AC38" s="9"/>
+      <c r="AD38" s="9"/>
     </row>
     <row r="39" spans="1:30">
       <c r="A39" s="3">
@@ -2585,7 +2650,7 @@
         <v>62</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>74</v>
+        <v>135</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" s="2"/>
@@ -2624,7 +2689,7 @@
         <v>63</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>74</v>
+        <v>135</v>
       </c>
       <c r="D40" s="2"/>
       <c r="E40" s="2"/>
@@ -2663,7 +2728,7 @@
         <v>64</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>74</v>
+        <v>135</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" s="2"/>
@@ -2702,7 +2767,7 @@
         <v>65</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>74</v>
+        <v>135</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" s="2"/>
@@ -2740,36 +2805,36 @@
       <c r="B43" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C43" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="D43" s="6"/>
-      <c r="E43" s="6"/>
-      <c r="F43" s="6"/>
-      <c r="G43" s="6"/>
-      <c r="H43" s="6"/>
-      <c r="I43" s="6"/>
-      <c r="J43" s="6"/>
-      <c r="K43" s="6"/>
-      <c r="L43" s="6"/>
-      <c r="M43" s="6"/>
-      <c r="N43" s="6"/>
-      <c r="O43" s="6"/>
-      <c r="P43" s="6"/>
-      <c r="Q43" s="6"/>
-      <c r="R43" s="6"/>
-      <c r="S43" s="6"/>
-      <c r="T43" s="6"/>
-      <c r="U43" s="6"/>
-      <c r="V43" s="6"/>
-      <c r="W43" s="6"/>
-      <c r="X43" s="6"/>
-      <c r="Y43" s="6"/>
-      <c r="Z43" s="6"/>
-      <c r="AA43" s="6"/>
-      <c r="AB43" s="6"/>
-      <c r="AC43" s="6"/>
-      <c r="AD43" s="6"/>
+      <c r="C43" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="D43" s="9"/>
+      <c r="E43" s="9"/>
+      <c r="F43" s="9"/>
+      <c r="G43" s="9"/>
+      <c r="H43" s="9"/>
+      <c r="I43" s="9"/>
+      <c r="J43" s="9"/>
+      <c r="K43" s="9"/>
+      <c r="L43" s="9"/>
+      <c r="M43" s="9"/>
+      <c r="N43" s="9"/>
+      <c r="O43" s="9"/>
+      <c r="P43" s="9"/>
+      <c r="Q43" s="9"/>
+      <c r="R43" s="9"/>
+      <c r="S43" s="9"/>
+      <c r="T43" s="9"/>
+      <c r="U43" s="9"/>
+      <c r="V43" s="9"/>
+      <c r="W43" s="9"/>
+      <c r="X43" s="9"/>
+      <c r="Y43" s="9"/>
+      <c r="Z43" s="9"/>
+      <c r="AA43" s="9"/>
+      <c r="AB43" s="9"/>
+      <c r="AC43" s="9"/>
+      <c r="AD43" s="9"/>
     </row>
     <row r="44" spans="1:30">
       <c r="A44" s="3">
@@ -2780,7 +2845,7 @@
         <v>66</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>74</v>
+        <v>135</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" s="2"/>
@@ -2819,7 +2884,7 @@
         <v>67</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>74</v>
+        <v>135</v>
       </c>
       <c r="D45" s="2"/>
       <c r="E45" s="2"/>
@@ -2858,7 +2923,7 @@
         <v>68</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>74</v>
+        <v>135</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" s="2"/>
@@ -2896,6 +2961,9 @@
       <c r="B47" s="3" t="s">
         <v>69</v>
       </c>
+      <c r="C47" s="2" t="s">
+        <v>135</v>
+      </c>
     </row>
     <row r="48" spans="1:30">
       <c r="A48" s="3">
@@ -2906,7 +2974,7 @@
         <v>70</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>74</v>
+        <v>135</v>
       </c>
       <c r="D48" s="2"/>
       <c r="E48" s="2"/>
@@ -2944,6 +3012,9 @@
       <c r="B49" s="3" t="s">
         <v>71</v>
       </c>
+      <c r="C49" s="2" t="s">
+        <v>135</v>
+      </c>
     </row>
     <row r="50" spans="1:30">
       <c r="A50" s="3">
@@ -2954,7 +3025,7 @@
         <v>72</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>74</v>
+        <v>135</v>
       </c>
       <c r="D50" s="2"/>
       <c r="E50" s="2"/>
@@ -2993,7 +3064,7 @@
         <v>73</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>74</v>
+        <v>135</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" s="2"/>
@@ -3031,36 +3102,36 @@
       <c r="B52" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C52" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="D52" s="6"/>
-      <c r="E52" s="6"/>
-      <c r="F52" s="6"/>
-      <c r="G52" s="6"/>
-      <c r="H52" s="6"/>
-      <c r="I52" s="6"/>
-      <c r="J52" s="6"/>
-      <c r="K52" s="6"/>
-      <c r="L52" s="6"/>
-      <c r="M52" s="6"/>
-      <c r="N52" s="6"/>
-      <c r="O52" s="6"/>
-      <c r="P52" s="6"/>
-      <c r="Q52" s="6"/>
-      <c r="R52" s="6"/>
-      <c r="S52" s="6"/>
-      <c r="T52" s="6"/>
-      <c r="U52" s="6"/>
-      <c r="V52" s="6"/>
-      <c r="W52" s="6"/>
-      <c r="X52" s="6"/>
-      <c r="Y52" s="6"/>
-      <c r="Z52" s="6"/>
-      <c r="AA52" s="6"/>
-      <c r="AB52" s="6"/>
-      <c r="AC52" s="6"/>
-      <c r="AD52" s="6"/>
+      <c r="C52" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="D52" s="9"/>
+      <c r="E52" s="9"/>
+      <c r="F52" s="9"/>
+      <c r="G52" s="9"/>
+      <c r="H52" s="9"/>
+      <c r="I52" s="9"/>
+      <c r="J52" s="9"/>
+      <c r="K52" s="9"/>
+      <c r="L52" s="9"/>
+      <c r="M52" s="9"/>
+      <c r="N52" s="9"/>
+      <c r="O52" s="9"/>
+      <c r="P52" s="9"/>
+      <c r="Q52" s="9"/>
+      <c r="R52" s="9"/>
+      <c r="S52" s="9"/>
+      <c r="T52" s="9"/>
+      <c r="U52" s="9"/>
+      <c r="V52" s="9"/>
+      <c r="W52" s="9"/>
+      <c r="X52" s="9"/>
+      <c r="Y52" s="9"/>
+      <c r="Z52" s="9"/>
+      <c r="AA52" s="9"/>
+      <c r="AB52" s="9"/>
+      <c r="AC52" s="9"/>
+      <c r="AD52" s="9"/>
     </row>
     <row r="53" spans="1:30">
       <c r="A53" s="3">
@@ -3071,7 +3142,7 @@
         <v>75</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>74</v>
+        <v>135</v>
       </c>
       <c r="D53" s="2"/>
       <c r="E53" s="2"/>
@@ -3110,7 +3181,7 @@
         <v>76</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>74</v>
+        <v>135</v>
       </c>
       <c r="D54" s="2"/>
       <c r="E54" s="2"/>
@@ -3149,7 +3220,7 @@
         <v>77</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>74</v>
+        <v>135</v>
       </c>
       <c r="D55" s="2"/>
       <c r="E55" s="2"/>
@@ -3197,7 +3268,7 @@
         <v>79</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>74</v>
+        <v>135</v>
       </c>
       <c r="D57" s="2"/>
       <c r="E57" s="2"/>
@@ -3236,7 +3307,7 @@
         <v>80</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>74</v>
+        <v>135</v>
       </c>
       <c r="D58" s="2"/>
       <c r="E58" s="2"/>
@@ -3274,36 +3345,36 @@
       <c r="B59" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C59" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="D59" s="6"/>
-      <c r="E59" s="6"/>
-      <c r="F59" s="6"/>
-      <c r="G59" s="6"/>
-      <c r="H59" s="6"/>
-      <c r="I59" s="6"/>
-      <c r="J59" s="6"/>
-      <c r="K59" s="6"/>
-      <c r="L59" s="6"/>
-      <c r="M59" s="6"/>
-      <c r="N59" s="6"/>
-      <c r="O59" s="6"/>
-      <c r="P59" s="6"/>
-      <c r="Q59" s="6"/>
-      <c r="R59" s="6"/>
-      <c r="S59" s="6"/>
-      <c r="T59" s="6"/>
-      <c r="U59" s="6"/>
-      <c r="V59" s="6"/>
-      <c r="W59" s="6"/>
-      <c r="X59" s="6"/>
-      <c r="Y59" s="6"/>
-      <c r="Z59" s="6"/>
-      <c r="AA59" s="6"/>
-      <c r="AB59" s="6"/>
-      <c r="AC59" s="6"/>
-      <c r="AD59" s="6"/>
+      <c r="C59" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="D59" s="9"/>
+      <c r="E59" s="9"/>
+      <c r="F59" s="9"/>
+      <c r="G59" s="9"/>
+      <c r="H59" s="9"/>
+      <c r="I59" s="9"/>
+      <c r="J59" s="9"/>
+      <c r="K59" s="9"/>
+      <c r="L59" s="9"/>
+      <c r="M59" s="9"/>
+      <c r="N59" s="9"/>
+      <c r="O59" s="9"/>
+      <c r="P59" s="9"/>
+      <c r="Q59" s="9"/>
+      <c r="R59" s="9"/>
+      <c r="S59" s="9"/>
+      <c r="T59" s="9"/>
+      <c r="U59" s="9"/>
+      <c r="V59" s="9"/>
+      <c r="W59" s="9"/>
+      <c r="X59" s="9"/>
+      <c r="Y59" s="9"/>
+      <c r="Z59" s="9"/>
+      <c r="AA59" s="9"/>
+      <c r="AB59" s="9"/>
+      <c r="AC59" s="9"/>
+      <c r="AD59" s="9"/>
     </row>
     <row r="60" spans="1:30">
       <c r="A60" s="3">
@@ -3313,36 +3384,36 @@
       <c r="B60" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C60" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="D60" s="6"/>
-      <c r="E60" s="6"/>
-      <c r="F60" s="6"/>
-      <c r="G60" s="6"/>
-      <c r="H60" s="6"/>
-      <c r="I60" s="6"/>
-      <c r="J60" s="6"/>
-      <c r="K60" s="6"/>
-      <c r="L60" s="6"/>
-      <c r="M60" s="6"/>
-      <c r="N60" s="6"/>
-      <c r="O60" s="6"/>
-      <c r="P60" s="6"/>
-      <c r="Q60" s="6"/>
-      <c r="R60" s="6"/>
-      <c r="S60" s="6"/>
-      <c r="T60" s="6"/>
-      <c r="U60" s="6"/>
-      <c r="V60" s="6"/>
-      <c r="W60" s="6"/>
-      <c r="X60" s="6"/>
-      <c r="Y60" s="6"/>
-      <c r="Z60" s="6"/>
-      <c r="AA60" s="6"/>
-      <c r="AB60" s="6"/>
-      <c r="AC60" s="6"/>
-      <c r="AD60" s="6"/>
+      <c r="C60" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="D60" s="9"/>
+      <c r="E60" s="9"/>
+      <c r="F60" s="9"/>
+      <c r="G60" s="9"/>
+      <c r="H60" s="9"/>
+      <c r="I60" s="9"/>
+      <c r="J60" s="9"/>
+      <c r="K60" s="9"/>
+      <c r="L60" s="9"/>
+      <c r="M60" s="9"/>
+      <c r="N60" s="9"/>
+      <c r="O60" s="9"/>
+      <c r="P60" s="9"/>
+      <c r="Q60" s="9"/>
+      <c r="R60" s="9"/>
+      <c r="S60" s="9"/>
+      <c r="T60" s="9"/>
+      <c r="U60" s="9"/>
+      <c r="V60" s="9"/>
+      <c r="W60" s="9"/>
+      <c r="X60" s="9"/>
+      <c r="Y60" s="9"/>
+      <c r="Z60" s="9"/>
+      <c r="AA60" s="9"/>
+      <c r="AB60" s="9"/>
+      <c r="AC60" s="9"/>
+      <c r="AD60" s="9"/>
     </row>
     <row r="61" spans="1:30">
       <c r="A61" s="3">
@@ -3352,36 +3423,36 @@
       <c r="B61" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C61" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="D61" s="6"/>
-      <c r="E61" s="6"/>
-      <c r="F61" s="6"/>
-      <c r="G61" s="6"/>
-      <c r="H61" s="6"/>
-      <c r="I61" s="6"/>
-      <c r="J61" s="6"/>
-      <c r="K61" s="6"/>
-      <c r="L61" s="6"/>
-      <c r="M61" s="6"/>
-      <c r="N61" s="6"/>
-      <c r="O61" s="6"/>
-      <c r="P61" s="6"/>
-      <c r="Q61" s="6"/>
-      <c r="R61" s="6"/>
-      <c r="S61" s="6"/>
-      <c r="T61" s="6"/>
-      <c r="U61" s="6"/>
-      <c r="V61" s="6"/>
-      <c r="W61" s="6"/>
-      <c r="X61" s="6"/>
-      <c r="Y61" s="6"/>
-      <c r="Z61" s="6"/>
-      <c r="AA61" s="6"/>
-      <c r="AB61" s="6"/>
-      <c r="AC61" s="6"/>
-      <c r="AD61" s="6"/>
+      <c r="C61" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="D61" s="9"/>
+      <c r="E61" s="9"/>
+      <c r="F61" s="9"/>
+      <c r="G61" s="9"/>
+      <c r="H61" s="9"/>
+      <c r="I61" s="9"/>
+      <c r="J61" s="9"/>
+      <c r="K61" s="9"/>
+      <c r="L61" s="9"/>
+      <c r="M61" s="9"/>
+      <c r="N61" s="9"/>
+      <c r="O61" s="9"/>
+      <c r="P61" s="9"/>
+      <c r="Q61" s="9"/>
+      <c r="R61" s="9"/>
+      <c r="S61" s="9"/>
+      <c r="T61" s="9"/>
+      <c r="U61" s="9"/>
+      <c r="V61" s="9"/>
+      <c r="W61" s="9"/>
+      <c r="X61" s="9"/>
+      <c r="Y61" s="9"/>
+      <c r="Z61" s="9"/>
+      <c r="AA61" s="9"/>
+      <c r="AB61" s="9"/>
+      <c r="AC61" s="9"/>
+      <c r="AD61" s="9"/>
     </row>
     <row r="62" spans="1:30">
       <c r="A62" s="3">
@@ -3391,36 +3462,36 @@
       <c r="B62" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C62" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="D62" s="6"/>
-      <c r="E62" s="6"/>
-      <c r="F62" s="6"/>
-      <c r="G62" s="6"/>
-      <c r="H62" s="6"/>
-      <c r="I62" s="6"/>
-      <c r="J62" s="6"/>
-      <c r="K62" s="6"/>
-      <c r="L62" s="6"/>
-      <c r="M62" s="6"/>
-      <c r="N62" s="6"/>
-      <c r="O62" s="6"/>
-      <c r="P62" s="6"/>
-      <c r="Q62" s="6"/>
-      <c r="R62" s="6"/>
-      <c r="S62" s="6"/>
-      <c r="T62" s="6"/>
-      <c r="U62" s="6"/>
-      <c r="V62" s="6"/>
-      <c r="W62" s="6"/>
-      <c r="X62" s="6"/>
-      <c r="Y62" s="6"/>
-      <c r="Z62" s="6"/>
-      <c r="AA62" s="6"/>
-      <c r="AB62" s="6"/>
-      <c r="AC62" s="6"/>
-      <c r="AD62" s="6"/>
+      <c r="C62" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="D62" s="9"/>
+      <c r="E62" s="9"/>
+      <c r="F62" s="9"/>
+      <c r="G62" s="9"/>
+      <c r="H62" s="9"/>
+      <c r="I62" s="9"/>
+      <c r="J62" s="9"/>
+      <c r="K62" s="9"/>
+      <c r="L62" s="9"/>
+      <c r="M62" s="9"/>
+      <c r="N62" s="9"/>
+      <c r="O62" s="9"/>
+      <c r="P62" s="9"/>
+      <c r="Q62" s="9"/>
+      <c r="R62" s="9"/>
+      <c r="S62" s="9"/>
+      <c r="T62" s="9"/>
+      <c r="U62" s="9"/>
+      <c r="V62" s="9"/>
+      <c r="W62" s="9"/>
+      <c r="X62" s="9"/>
+      <c r="Y62" s="9"/>
+      <c r="Z62" s="9"/>
+      <c r="AA62" s="9"/>
+      <c r="AB62" s="9"/>
+      <c r="AC62" s="9"/>
+      <c r="AD62" s="9"/>
     </row>
     <row r="63" spans="1:30">
       <c r="A63" s="3">
@@ -3431,7 +3502,7 @@
         <v>81</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>74</v>
+        <v>135</v>
       </c>
       <c r="D63" s="2"/>
       <c r="E63" s="2"/>
@@ -3470,7 +3541,7 @@
         <v>82</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>74</v>
+        <v>135</v>
       </c>
       <c r="D64" s="2"/>
       <c r="E64" s="2"/>
@@ -3509,7 +3580,7 @@
         <v>83</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>74</v>
+        <v>135</v>
       </c>
       <c r="D65" s="2"/>
       <c r="E65" s="2"/>
@@ -3548,7 +3619,7 @@
         <v>84</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>74</v>
+        <v>135</v>
       </c>
       <c r="D66" s="2"/>
       <c r="E66" s="2"/>
@@ -3587,7 +3658,7 @@
         <v>85</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>74</v>
+        <v>135</v>
       </c>
       <c r="D67" s="2"/>
       <c r="E67" s="2"/>
@@ -3626,7 +3697,7 @@
         <v>86</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>74</v>
+        <v>135</v>
       </c>
       <c r="D68" s="2"/>
       <c r="E68" s="2"/>
@@ -3665,7 +3736,7 @@
         <v>87</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>74</v>
+        <v>135</v>
       </c>
       <c r="D69" s="2"/>
       <c r="E69" s="2"/>
@@ -3704,7 +3775,7 @@
         <v>88</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>74</v>
+        <v>135</v>
       </c>
       <c r="D70" s="2"/>
       <c r="E70" s="2"/>
@@ -3743,7 +3814,7 @@
         <v>89</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>74</v>
+        <v>135</v>
       </c>
       <c r="D71" s="2"/>
       <c r="E71" s="2"/>
@@ -3782,7 +3853,7 @@
         <v>90</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>74</v>
+        <v>135</v>
       </c>
       <c r="D72" s="2"/>
       <c r="E72" s="2"/>
@@ -3821,7 +3892,7 @@
         <v>91</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>74</v>
+        <v>135</v>
       </c>
       <c r="D73" s="2"/>
       <c r="E73" s="2"/>
@@ -3860,7 +3931,7 @@
         <v>92</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>74</v>
+        <v>135</v>
       </c>
       <c r="D74" s="2"/>
       <c r="E74" s="2"/>
@@ -3899,7 +3970,7 @@
         <v>93</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>74</v>
+        <v>135</v>
       </c>
       <c r="D75" s="2"/>
       <c r="E75" s="2"/>
@@ -3935,38 +4006,38 @@
         <v>83</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C76" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="D76" s="6"/>
-      <c r="E76" s="6"/>
-      <c r="F76" s="6"/>
-      <c r="G76" s="6"/>
-      <c r="H76" s="6"/>
-      <c r="I76" s="6"/>
-      <c r="J76" s="6"/>
-      <c r="K76" s="6"/>
-      <c r="L76" s="6"/>
-      <c r="M76" s="6"/>
-      <c r="N76" s="6"/>
-      <c r="O76" s="6"/>
-      <c r="P76" s="6"/>
-      <c r="Q76" s="6"/>
-      <c r="R76" s="6"/>
-      <c r="S76" s="6"/>
-      <c r="T76" s="6"/>
-      <c r="U76" s="6"/>
-      <c r="V76" s="6"/>
-      <c r="W76" s="6"/>
-      <c r="X76" s="6"/>
-      <c r="Y76" s="6"/>
-      <c r="Z76" s="6"/>
-      <c r="AA76" s="6"/>
-      <c r="AB76" s="6"/>
-      <c r="AC76" s="6"/>
-      <c r="AD76" s="6"/>
+        <v>136</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="D76" s="2"/>
+      <c r="E76" s="2"/>
+      <c r="F76" s="2"/>
+      <c r="G76" s="2"/>
+      <c r="H76" s="2"/>
+      <c r="I76" s="2"/>
+      <c r="J76" s="2"/>
+      <c r="K76" s="2"/>
+      <c r="L76" s="2"/>
+      <c r="M76" s="2"/>
+      <c r="N76" s="2"/>
+      <c r="O76" s="2"/>
+      <c r="P76" s="2"/>
+      <c r="Q76" s="2"/>
+      <c r="R76" s="2"/>
+      <c r="S76" s="2"/>
+      <c r="T76" s="2"/>
+      <c r="U76" s="2"/>
+      <c r="V76" s="2"/>
+      <c r="W76" s="2"/>
+      <c r="X76" s="2"/>
+      <c r="Y76" s="2"/>
+      <c r="Z76" s="2"/>
+      <c r="AA76" s="2"/>
+      <c r="AB76" s="2"/>
+      <c r="AC76" s="2"/>
+      <c r="AD76" s="2"/>
     </row>
     <row r="77" spans="1:30">
       <c r="A77" s="3">
@@ -3976,36 +4047,36 @@
       <c r="B77" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C77" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="D77" s="6"/>
-      <c r="E77" s="6"/>
-      <c r="F77" s="6"/>
-      <c r="G77" s="6"/>
-      <c r="H77" s="6"/>
-      <c r="I77" s="6"/>
-      <c r="J77" s="6"/>
-      <c r="K77" s="6"/>
-      <c r="L77" s="6"/>
-      <c r="M77" s="6"/>
-      <c r="N77" s="6"/>
-      <c r="O77" s="6"/>
-      <c r="P77" s="6"/>
-      <c r="Q77" s="6"/>
-      <c r="R77" s="6"/>
-      <c r="S77" s="6"/>
-      <c r="T77" s="6"/>
-      <c r="U77" s="6"/>
-      <c r="V77" s="6"/>
-      <c r="W77" s="6"/>
-      <c r="X77" s="6"/>
-      <c r="Y77" s="6"/>
-      <c r="Z77" s="6"/>
-      <c r="AA77" s="6"/>
-      <c r="AB77" s="6"/>
-      <c r="AC77" s="6"/>
-      <c r="AD77" s="6"/>
+      <c r="C77" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="D77" s="9"/>
+      <c r="E77" s="9"/>
+      <c r="F77" s="9"/>
+      <c r="G77" s="9"/>
+      <c r="H77" s="9"/>
+      <c r="I77" s="9"/>
+      <c r="J77" s="9"/>
+      <c r="K77" s="9"/>
+      <c r="L77" s="9"/>
+      <c r="M77" s="9"/>
+      <c r="N77" s="9"/>
+      <c r="O77" s="9"/>
+      <c r="P77" s="9"/>
+      <c r="Q77" s="9"/>
+      <c r="R77" s="9"/>
+      <c r="S77" s="9"/>
+      <c r="T77" s="9"/>
+      <c r="U77" s="9"/>
+      <c r="V77" s="9"/>
+      <c r="W77" s="9"/>
+      <c r="X77" s="9"/>
+      <c r="Y77" s="9"/>
+      <c r="Z77" s="9"/>
+      <c r="AA77" s="9"/>
+      <c r="AB77" s="9"/>
+      <c r="AC77" s="9"/>
+      <c r="AD77" s="9"/>
     </row>
     <row r="78" spans="1:30">
       <c r="A78" s="3">
@@ -4015,36 +4086,36 @@
       <c r="B78" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C78" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="D78" s="6"/>
-      <c r="E78" s="6"/>
-      <c r="F78" s="6"/>
-      <c r="G78" s="6"/>
-      <c r="H78" s="6"/>
-      <c r="I78" s="6"/>
-      <c r="J78" s="6"/>
-      <c r="K78" s="6"/>
-      <c r="L78" s="6"/>
-      <c r="M78" s="6"/>
-      <c r="N78" s="6"/>
-      <c r="O78" s="6"/>
-      <c r="P78" s="6"/>
-      <c r="Q78" s="6"/>
-      <c r="R78" s="6"/>
-      <c r="S78" s="6"/>
-      <c r="T78" s="6"/>
-      <c r="U78" s="6"/>
-      <c r="V78" s="6"/>
-      <c r="W78" s="6"/>
-      <c r="X78" s="6"/>
-      <c r="Y78" s="6"/>
-      <c r="Z78" s="6"/>
-      <c r="AA78" s="6"/>
-      <c r="AB78" s="6"/>
-      <c r="AC78" s="6"/>
-      <c r="AD78" s="6"/>
+      <c r="C78" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="D78" s="9"/>
+      <c r="E78" s="9"/>
+      <c r="F78" s="9"/>
+      <c r="G78" s="9"/>
+      <c r="H78" s="9"/>
+      <c r="I78" s="9"/>
+      <c r="J78" s="9"/>
+      <c r="K78" s="9"/>
+      <c r="L78" s="9"/>
+      <c r="M78" s="9"/>
+      <c r="N78" s="9"/>
+      <c r="O78" s="9"/>
+      <c r="P78" s="9"/>
+      <c r="Q78" s="9"/>
+      <c r="R78" s="9"/>
+      <c r="S78" s="9"/>
+      <c r="T78" s="9"/>
+      <c r="U78" s="9"/>
+      <c r="V78" s="9"/>
+      <c r="W78" s="9"/>
+      <c r="X78" s="9"/>
+      <c r="Y78" s="9"/>
+      <c r="Z78" s="9"/>
+      <c r="AA78" s="9"/>
+      <c r="AB78" s="9"/>
+      <c r="AC78" s="9"/>
+      <c r="AD78" s="9"/>
     </row>
     <row r="79" spans="1:30">
       <c r="A79" s="3">
@@ -4054,36 +4125,36 @@
       <c r="B79" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C79" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="D79" s="6"/>
-      <c r="E79" s="6"/>
-      <c r="F79" s="6"/>
-      <c r="G79" s="6"/>
-      <c r="H79" s="6"/>
-      <c r="I79" s="6"/>
-      <c r="J79" s="6"/>
-      <c r="K79" s="6"/>
-      <c r="L79" s="6"/>
-      <c r="M79" s="6"/>
-      <c r="N79" s="6"/>
-      <c r="O79" s="6"/>
-      <c r="P79" s="6"/>
-      <c r="Q79" s="6"/>
-      <c r="R79" s="6"/>
-      <c r="S79" s="6"/>
-      <c r="T79" s="6"/>
-      <c r="U79" s="6"/>
-      <c r="V79" s="6"/>
-      <c r="W79" s="6"/>
-      <c r="X79" s="6"/>
-      <c r="Y79" s="6"/>
-      <c r="Z79" s="6"/>
-      <c r="AA79" s="6"/>
-      <c r="AB79" s="6"/>
-      <c r="AC79" s="6"/>
-      <c r="AD79" s="6"/>
+      <c r="C79" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="D79" s="9"/>
+      <c r="E79" s="9"/>
+      <c r="F79" s="9"/>
+      <c r="G79" s="9"/>
+      <c r="H79" s="9"/>
+      <c r="I79" s="9"/>
+      <c r="J79" s="9"/>
+      <c r="K79" s="9"/>
+      <c r="L79" s="9"/>
+      <c r="M79" s="9"/>
+      <c r="N79" s="9"/>
+      <c r="O79" s="9"/>
+      <c r="P79" s="9"/>
+      <c r="Q79" s="9"/>
+      <c r="R79" s="9"/>
+      <c r="S79" s="9"/>
+      <c r="T79" s="9"/>
+      <c r="U79" s="9"/>
+      <c r="V79" s="9"/>
+      <c r="W79" s="9"/>
+      <c r="X79" s="9"/>
+      <c r="Y79" s="9"/>
+      <c r="Z79" s="9"/>
+      <c r="AA79" s="9"/>
+      <c r="AB79" s="9"/>
+      <c r="AC79" s="9"/>
+      <c r="AD79" s="9"/>
     </row>
     <row r="80" spans="1:30">
       <c r="A80" s="3">
@@ -4093,36 +4164,36 @@
       <c r="B80" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C80" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="D80" s="6"/>
-      <c r="E80" s="6"/>
-      <c r="F80" s="6"/>
-      <c r="G80" s="6"/>
-      <c r="H80" s="6"/>
-      <c r="I80" s="6"/>
-      <c r="J80" s="6"/>
-      <c r="K80" s="6"/>
-      <c r="L80" s="6"/>
-      <c r="M80" s="6"/>
-      <c r="N80" s="6"/>
-      <c r="O80" s="6"/>
-      <c r="P80" s="6"/>
-      <c r="Q80" s="6"/>
-      <c r="R80" s="6"/>
-      <c r="S80" s="6"/>
-      <c r="T80" s="6"/>
-      <c r="U80" s="6"/>
-      <c r="V80" s="6"/>
-      <c r="W80" s="6"/>
-      <c r="X80" s="6"/>
-      <c r="Y80" s="6"/>
-      <c r="Z80" s="6"/>
-      <c r="AA80" s="6"/>
-      <c r="AB80" s="6"/>
-      <c r="AC80" s="6"/>
-      <c r="AD80" s="6"/>
+      <c r="C80" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="D80" s="9"/>
+      <c r="E80" s="9"/>
+      <c r="F80" s="9"/>
+      <c r="G80" s="9"/>
+      <c r="H80" s="9"/>
+      <c r="I80" s="9"/>
+      <c r="J80" s="9"/>
+      <c r="K80" s="9"/>
+      <c r="L80" s="9"/>
+      <c r="M80" s="9"/>
+      <c r="N80" s="9"/>
+      <c r="O80" s="9"/>
+      <c r="P80" s="9"/>
+      <c r="Q80" s="9"/>
+      <c r="R80" s="9"/>
+      <c r="S80" s="9"/>
+      <c r="T80" s="9"/>
+      <c r="U80" s="9"/>
+      <c r="V80" s="9"/>
+      <c r="W80" s="9"/>
+      <c r="X80" s="9"/>
+      <c r="Y80" s="9"/>
+      <c r="Z80" s="9"/>
+      <c r="AA80" s="9"/>
+      <c r="AB80" s="9"/>
+      <c r="AC80" s="9"/>
+      <c r="AD80" s="9"/>
     </row>
     <row r="81" spans="1:30">
       <c r="A81" s="3">
@@ -4132,36 +4203,36 @@
       <c r="B81" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C81" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="D81" s="6"/>
-      <c r="E81" s="6"/>
-      <c r="F81" s="6"/>
-      <c r="G81" s="6"/>
-      <c r="H81" s="6"/>
-      <c r="I81" s="6"/>
-      <c r="J81" s="6"/>
-      <c r="K81" s="6"/>
-      <c r="L81" s="6"/>
-      <c r="M81" s="6"/>
-      <c r="N81" s="6"/>
-      <c r="O81" s="6"/>
-      <c r="P81" s="6"/>
-      <c r="Q81" s="6"/>
-      <c r="R81" s="6"/>
-      <c r="S81" s="6"/>
-      <c r="T81" s="6"/>
-      <c r="U81" s="6"/>
-      <c r="V81" s="6"/>
-      <c r="W81" s="6"/>
-      <c r="X81" s="6"/>
-      <c r="Y81" s="6"/>
-      <c r="Z81" s="6"/>
-      <c r="AA81" s="6"/>
-      <c r="AB81" s="6"/>
-      <c r="AC81" s="6"/>
-      <c r="AD81" s="6"/>
+      <c r="C81" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="D81" s="9"/>
+      <c r="E81" s="9"/>
+      <c r="F81" s="9"/>
+      <c r="G81" s="9"/>
+      <c r="H81" s="9"/>
+      <c r="I81" s="9"/>
+      <c r="J81" s="9"/>
+      <c r="K81" s="9"/>
+      <c r="L81" s="9"/>
+      <c r="M81" s="9"/>
+      <c r="N81" s="9"/>
+      <c r="O81" s="9"/>
+      <c r="P81" s="9"/>
+      <c r="Q81" s="9"/>
+      <c r="R81" s="9"/>
+      <c r="S81" s="9"/>
+      <c r="T81" s="9"/>
+      <c r="U81" s="9"/>
+      <c r="V81" s="9"/>
+      <c r="W81" s="9"/>
+      <c r="X81" s="9"/>
+      <c r="Y81" s="9"/>
+      <c r="Z81" s="9"/>
+      <c r="AA81" s="9"/>
+      <c r="AB81" s="9"/>
+      <c r="AC81" s="9"/>
+      <c r="AD81" s="9"/>
     </row>
     <row r="82" spans="1:30">
       <c r="A82" s="3">
@@ -4171,36 +4242,36 @@
       <c r="B82" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C82" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="D82" s="6"/>
-      <c r="E82" s="6"/>
-      <c r="F82" s="6"/>
-      <c r="G82" s="6"/>
-      <c r="H82" s="6"/>
-      <c r="I82" s="6"/>
-      <c r="J82" s="6"/>
-      <c r="K82" s="6"/>
-      <c r="L82" s="6"/>
-      <c r="M82" s="6"/>
-      <c r="N82" s="6"/>
-      <c r="O82" s="6"/>
-      <c r="P82" s="6"/>
-      <c r="Q82" s="6"/>
-      <c r="R82" s="6"/>
-      <c r="S82" s="6"/>
-      <c r="T82" s="6"/>
-      <c r="U82" s="6"/>
-      <c r="V82" s="6"/>
-      <c r="W82" s="6"/>
-      <c r="X82" s="6"/>
-      <c r="Y82" s="6"/>
-      <c r="Z82" s="6"/>
-      <c r="AA82" s="6"/>
-      <c r="AB82" s="6"/>
-      <c r="AC82" s="6"/>
-      <c r="AD82" s="6"/>
+      <c r="C82" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="D82" s="9"/>
+      <c r="E82" s="9"/>
+      <c r="F82" s="9"/>
+      <c r="G82" s="9"/>
+      <c r="H82" s="9"/>
+      <c r="I82" s="9"/>
+      <c r="J82" s="9"/>
+      <c r="K82" s="9"/>
+      <c r="L82" s="9"/>
+      <c r="M82" s="9"/>
+      <c r="N82" s="9"/>
+      <c r="O82" s="9"/>
+      <c r="P82" s="9"/>
+      <c r="Q82" s="9"/>
+      <c r="R82" s="9"/>
+      <c r="S82" s="9"/>
+      <c r="T82" s="9"/>
+      <c r="U82" s="9"/>
+      <c r="V82" s="9"/>
+      <c r="W82" s="9"/>
+      <c r="X82" s="9"/>
+      <c r="Y82" s="9"/>
+      <c r="Z82" s="9"/>
+      <c r="AA82" s="9"/>
+      <c r="AB82" s="9"/>
+      <c r="AC82" s="9"/>
+      <c r="AD82" s="9"/>
     </row>
     <row r="83" spans="1:30">
       <c r="A83" s="3">
@@ -4211,7 +4282,7 @@
         <v>94</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>74</v>
+        <v>135</v>
       </c>
       <c r="D83" s="2"/>
       <c r="E83" s="2"/>
@@ -4250,7 +4321,7 @@
         <v>95</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>74</v>
+        <v>135</v>
       </c>
       <c r="D84" s="2"/>
       <c r="E84" s="2"/>
@@ -4289,7 +4360,7 @@
         <v>96</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>74</v>
+        <v>135</v>
       </c>
       <c r="D85" s="2"/>
       <c r="E85" s="2"/>
@@ -4328,7 +4399,7 @@
         <v>97</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>74</v>
+        <v>135</v>
       </c>
       <c r="D86" s="2"/>
       <c r="E86" s="2"/>
@@ -4367,7 +4438,7 @@
         <v>98</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>74</v>
+        <v>135</v>
       </c>
       <c r="D87" s="2"/>
       <c r="E87" s="2"/>
@@ -4405,36 +4476,36 @@
       <c r="B88" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C88" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="D88" s="6"/>
-      <c r="E88" s="6"/>
-      <c r="F88" s="6"/>
-      <c r="G88" s="6"/>
-      <c r="H88" s="6"/>
-      <c r="I88" s="6"/>
-      <c r="J88" s="6"/>
-      <c r="K88" s="6"/>
-      <c r="L88" s="6"/>
-      <c r="M88" s="6"/>
-      <c r="N88" s="6"/>
-      <c r="O88" s="6"/>
-      <c r="P88" s="6"/>
-      <c r="Q88" s="6"/>
-      <c r="R88" s="6"/>
-      <c r="S88" s="6"/>
-      <c r="T88" s="6"/>
-      <c r="U88" s="6"/>
-      <c r="V88" s="6"/>
-      <c r="W88" s="6"/>
-      <c r="X88" s="6"/>
-      <c r="Y88" s="6"/>
-      <c r="Z88" s="6"/>
-      <c r="AA88" s="6"/>
-      <c r="AB88" s="6"/>
-      <c r="AC88" s="6"/>
-      <c r="AD88" s="6"/>
+      <c r="C88" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="D88" s="9"/>
+      <c r="E88" s="9"/>
+      <c r="F88" s="9"/>
+      <c r="G88" s="9"/>
+      <c r="H88" s="9"/>
+      <c r="I88" s="9"/>
+      <c r="J88" s="9"/>
+      <c r="K88" s="9"/>
+      <c r="L88" s="9"/>
+      <c r="M88" s="9"/>
+      <c r="N88" s="9"/>
+      <c r="O88" s="9"/>
+      <c r="P88" s="9"/>
+      <c r="Q88" s="9"/>
+      <c r="R88" s="9"/>
+      <c r="S88" s="9"/>
+      <c r="T88" s="9"/>
+      <c r="U88" s="9"/>
+      <c r="V88" s="9"/>
+      <c r="W88" s="9"/>
+      <c r="X88" s="9"/>
+      <c r="Y88" s="9"/>
+      <c r="Z88" s="9"/>
+      <c r="AA88" s="9"/>
+      <c r="AB88" s="9"/>
+      <c r="AC88" s="9"/>
+      <c r="AD88" s="9"/>
     </row>
     <row r="89" spans="1:30">
       <c r="A89" s="3">
@@ -4444,36 +4515,36 @@
       <c r="B89" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C89" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="D89" s="6"/>
-      <c r="E89" s="6"/>
-      <c r="F89" s="6"/>
-      <c r="G89" s="6"/>
-      <c r="H89" s="6"/>
-      <c r="I89" s="6"/>
-      <c r="J89" s="6"/>
-      <c r="K89" s="6"/>
-      <c r="L89" s="6"/>
-      <c r="M89" s="6"/>
-      <c r="N89" s="6"/>
-      <c r="O89" s="6"/>
-      <c r="P89" s="6"/>
-      <c r="Q89" s="6"/>
-      <c r="R89" s="6"/>
-      <c r="S89" s="6"/>
-      <c r="T89" s="6"/>
-      <c r="U89" s="6"/>
-      <c r="V89" s="6"/>
-      <c r="W89" s="6"/>
-      <c r="X89" s="6"/>
-      <c r="Y89" s="6"/>
-      <c r="Z89" s="6"/>
-      <c r="AA89" s="6"/>
-      <c r="AB89" s="6"/>
-      <c r="AC89" s="6"/>
-      <c r="AD89" s="6"/>
+      <c r="C89" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="D89" s="9"/>
+      <c r="E89" s="9"/>
+      <c r="F89" s="9"/>
+      <c r="G89" s="9"/>
+      <c r="H89" s="9"/>
+      <c r="I89" s="9"/>
+      <c r="J89" s="9"/>
+      <c r="K89" s="9"/>
+      <c r="L89" s="9"/>
+      <c r="M89" s="9"/>
+      <c r="N89" s="9"/>
+      <c r="O89" s="9"/>
+      <c r="P89" s="9"/>
+      <c r="Q89" s="9"/>
+      <c r="R89" s="9"/>
+      <c r="S89" s="9"/>
+      <c r="T89" s="9"/>
+      <c r="U89" s="9"/>
+      <c r="V89" s="9"/>
+      <c r="W89" s="9"/>
+      <c r="X89" s="9"/>
+      <c r="Y89" s="9"/>
+      <c r="Z89" s="9"/>
+      <c r="AA89" s="9"/>
+      <c r="AB89" s="9"/>
+      <c r="AC89" s="9"/>
+      <c r="AD89" s="9"/>
     </row>
     <row r="90" spans="1:30">
       <c r="A90" s="3">
@@ -4483,36 +4554,36 @@
       <c r="B90" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C90" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="D90" s="6"/>
-      <c r="E90" s="6"/>
-      <c r="F90" s="6"/>
-      <c r="G90" s="6"/>
-      <c r="H90" s="6"/>
-      <c r="I90" s="6"/>
-      <c r="J90" s="6"/>
-      <c r="K90" s="6"/>
-      <c r="L90" s="6"/>
-      <c r="M90" s="6"/>
-      <c r="N90" s="6"/>
-      <c r="O90" s="6"/>
-      <c r="P90" s="6"/>
-      <c r="Q90" s="6"/>
-      <c r="R90" s="6"/>
-      <c r="S90" s="6"/>
-      <c r="T90" s="6"/>
-      <c r="U90" s="6"/>
-      <c r="V90" s="6"/>
-      <c r="W90" s="6"/>
-      <c r="X90" s="6"/>
-      <c r="Y90" s="6"/>
-      <c r="Z90" s="6"/>
-      <c r="AA90" s="6"/>
-      <c r="AB90" s="6"/>
-      <c r="AC90" s="6"/>
-      <c r="AD90" s="6"/>
+      <c r="C90" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="D90" s="9"/>
+      <c r="E90" s="9"/>
+      <c r="F90" s="9"/>
+      <c r="G90" s="9"/>
+      <c r="H90" s="9"/>
+      <c r="I90" s="9"/>
+      <c r="J90" s="9"/>
+      <c r="K90" s="9"/>
+      <c r="L90" s="9"/>
+      <c r="M90" s="9"/>
+      <c r="N90" s="9"/>
+      <c r="O90" s="9"/>
+      <c r="P90" s="9"/>
+      <c r="Q90" s="9"/>
+      <c r="R90" s="9"/>
+      <c r="S90" s="9"/>
+      <c r="T90" s="9"/>
+      <c r="U90" s="9"/>
+      <c r="V90" s="9"/>
+      <c r="W90" s="9"/>
+      <c r="X90" s="9"/>
+      <c r="Y90" s="9"/>
+      <c r="Z90" s="9"/>
+      <c r="AA90" s="9"/>
+      <c r="AB90" s="9"/>
+      <c r="AC90" s="9"/>
+      <c r="AD90" s="9"/>
     </row>
     <row r="91" spans="1:30">
       <c r="A91" s="3">
@@ -4522,36 +4593,36 @@
       <c r="B91" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C91" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="D91" s="6"/>
-      <c r="E91" s="6"/>
-      <c r="F91" s="6"/>
-      <c r="G91" s="6"/>
-      <c r="H91" s="6"/>
-      <c r="I91" s="6"/>
-      <c r="J91" s="6"/>
-      <c r="K91" s="6"/>
-      <c r="L91" s="6"/>
-      <c r="M91" s="6"/>
-      <c r="N91" s="6"/>
-      <c r="O91" s="6"/>
-      <c r="P91" s="6"/>
-      <c r="Q91" s="6"/>
-      <c r="R91" s="6"/>
-      <c r="S91" s="6"/>
-      <c r="T91" s="6"/>
-      <c r="U91" s="6"/>
-      <c r="V91" s="6"/>
-      <c r="W91" s="6"/>
-      <c r="X91" s="6"/>
-      <c r="Y91" s="6"/>
-      <c r="Z91" s="6"/>
-      <c r="AA91" s="6"/>
-      <c r="AB91" s="6"/>
-      <c r="AC91" s="6"/>
-      <c r="AD91" s="6"/>
+      <c r="C91" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="D91" s="9"/>
+      <c r="E91" s="9"/>
+      <c r="F91" s="9"/>
+      <c r="G91" s="9"/>
+      <c r="H91" s="9"/>
+      <c r="I91" s="9"/>
+      <c r="J91" s="9"/>
+      <c r="K91" s="9"/>
+      <c r="L91" s="9"/>
+      <c r="M91" s="9"/>
+      <c r="N91" s="9"/>
+      <c r="O91" s="9"/>
+      <c r="P91" s="9"/>
+      <c r="Q91" s="9"/>
+      <c r="R91" s="9"/>
+      <c r="S91" s="9"/>
+      <c r="T91" s="9"/>
+      <c r="U91" s="9"/>
+      <c r="V91" s="9"/>
+      <c r="W91" s="9"/>
+      <c r="X91" s="9"/>
+      <c r="Y91" s="9"/>
+      <c r="Z91" s="9"/>
+      <c r="AA91" s="9"/>
+      <c r="AB91" s="9"/>
+      <c r="AC91" s="9"/>
+      <c r="AD91" s="9"/>
     </row>
     <row r="92" spans="1:30">
       <c r="A92" s="3">
@@ -4561,36 +4632,36 @@
       <c r="B92" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C92" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="D92" s="6"/>
-      <c r="E92" s="6"/>
-      <c r="F92" s="6"/>
-      <c r="G92" s="6"/>
-      <c r="H92" s="6"/>
-      <c r="I92" s="6"/>
-      <c r="J92" s="6"/>
-      <c r="K92" s="6"/>
-      <c r="L92" s="6"/>
-      <c r="M92" s="6"/>
-      <c r="N92" s="6"/>
-      <c r="O92" s="6"/>
-      <c r="P92" s="6"/>
-      <c r="Q92" s="6"/>
-      <c r="R92" s="6"/>
-      <c r="S92" s="6"/>
-      <c r="T92" s="6"/>
-      <c r="U92" s="6"/>
-      <c r="V92" s="6"/>
-      <c r="W92" s="6"/>
-      <c r="X92" s="6"/>
-      <c r="Y92" s="6"/>
-      <c r="Z92" s="6"/>
-      <c r="AA92" s="6"/>
-      <c r="AB92" s="6"/>
-      <c r="AC92" s="6"/>
-      <c r="AD92" s="6"/>
+      <c r="C92" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="D92" s="9"/>
+      <c r="E92" s="9"/>
+      <c r="F92" s="9"/>
+      <c r="G92" s="9"/>
+      <c r="H92" s="9"/>
+      <c r="I92" s="9"/>
+      <c r="J92" s="9"/>
+      <c r="K92" s="9"/>
+      <c r="L92" s="9"/>
+      <c r="M92" s="9"/>
+      <c r="N92" s="9"/>
+      <c r="O92" s="9"/>
+      <c r="P92" s="9"/>
+      <c r="Q92" s="9"/>
+      <c r="R92" s="9"/>
+      <c r="S92" s="9"/>
+      <c r="T92" s="9"/>
+      <c r="U92" s="9"/>
+      <c r="V92" s="9"/>
+      <c r="W92" s="9"/>
+      <c r="X92" s="9"/>
+      <c r="Y92" s="9"/>
+      <c r="Z92" s="9"/>
+      <c r="AA92" s="9"/>
+      <c r="AB92" s="9"/>
+      <c r="AC92" s="9"/>
+      <c r="AD92" s="9"/>
     </row>
     <row r="93" spans="1:30">
       <c r="A93" s="3">
@@ -4639,36 +4710,36 @@
       <c r="B94" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C94" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="D94" s="6"/>
-      <c r="E94" s="6"/>
-      <c r="F94" s="6"/>
-      <c r="G94" s="6"/>
-      <c r="H94" s="6"/>
-      <c r="I94" s="6"/>
-      <c r="J94" s="6"/>
-      <c r="K94" s="6"/>
-      <c r="L94" s="6"/>
-      <c r="M94" s="6"/>
-      <c r="N94" s="6"/>
-      <c r="O94" s="6"/>
-      <c r="P94" s="6"/>
-      <c r="Q94" s="6"/>
-      <c r="R94" s="6"/>
-      <c r="S94" s="6"/>
-      <c r="T94" s="6"/>
-      <c r="U94" s="6"/>
-      <c r="V94" s="6"/>
-      <c r="W94" s="6"/>
-      <c r="X94" s="6"/>
-      <c r="Y94" s="6"/>
-      <c r="Z94" s="6"/>
-      <c r="AA94" s="6"/>
-      <c r="AB94" s="6"/>
-      <c r="AC94" s="6"/>
-      <c r="AD94" s="6"/>
+      <c r="C94" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="D94" s="9"/>
+      <c r="E94" s="9"/>
+      <c r="F94" s="9"/>
+      <c r="G94" s="9"/>
+      <c r="H94" s="9"/>
+      <c r="I94" s="9"/>
+      <c r="J94" s="9"/>
+      <c r="K94" s="9"/>
+      <c r="L94" s="9"/>
+      <c r="M94" s="9"/>
+      <c r="N94" s="9"/>
+      <c r="O94" s="9"/>
+      <c r="P94" s="9"/>
+      <c r="Q94" s="9"/>
+      <c r="R94" s="9"/>
+      <c r="S94" s="9"/>
+      <c r="T94" s="9"/>
+      <c r="U94" s="9"/>
+      <c r="V94" s="9"/>
+      <c r="W94" s="9"/>
+      <c r="X94" s="9"/>
+      <c r="Y94" s="9"/>
+      <c r="Z94" s="9"/>
+      <c r="AA94" s="9"/>
+      <c r="AB94" s="9"/>
+      <c r="AC94" s="9"/>
+      <c r="AD94" s="9"/>
     </row>
     <row r="95" spans="1:30">
       <c r="A95" s="3">
@@ -4678,36 +4749,36 @@
       <c r="B95" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C95" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="D95" s="6"/>
-      <c r="E95" s="6"/>
-      <c r="F95" s="6"/>
-      <c r="G95" s="6"/>
-      <c r="H95" s="6"/>
-      <c r="I95" s="6"/>
-      <c r="J95" s="6"/>
-      <c r="K95" s="6"/>
-      <c r="L95" s="6"/>
-      <c r="M95" s="6"/>
-      <c r="N95" s="6"/>
-      <c r="O95" s="6"/>
-      <c r="P95" s="6"/>
-      <c r="Q95" s="6"/>
-      <c r="R95" s="6"/>
-      <c r="S95" s="6"/>
-      <c r="T95" s="6"/>
-      <c r="U95" s="6"/>
-      <c r="V95" s="6"/>
-      <c r="W95" s="6"/>
-      <c r="X95" s="6"/>
-      <c r="Y95" s="6"/>
-      <c r="Z95" s="6"/>
-      <c r="AA95" s="6"/>
-      <c r="AB95" s="6"/>
-      <c r="AC95" s="6"/>
-      <c r="AD95" s="6"/>
+      <c r="C95" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="D95" s="9"/>
+      <c r="E95" s="9"/>
+      <c r="F95" s="9"/>
+      <c r="G95" s="9"/>
+      <c r="H95" s="9"/>
+      <c r="I95" s="9"/>
+      <c r="J95" s="9"/>
+      <c r="K95" s="9"/>
+      <c r="L95" s="9"/>
+      <c r="M95" s="9"/>
+      <c r="N95" s="9"/>
+      <c r="O95" s="9"/>
+      <c r="P95" s="9"/>
+      <c r="Q95" s="9"/>
+      <c r="R95" s="9"/>
+      <c r="S95" s="9"/>
+      <c r="T95" s="9"/>
+      <c r="U95" s="9"/>
+      <c r="V95" s="9"/>
+      <c r="W95" s="9"/>
+      <c r="X95" s="9"/>
+      <c r="Y95" s="9"/>
+      <c r="Z95" s="9"/>
+      <c r="AA95" s="9"/>
+      <c r="AB95" s="9"/>
+      <c r="AC95" s="9"/>
+      <c r="AD95" s="9"/>
     </row>
     <row r="96" spans="1:30">
       <c r="A96" s="3">
@@ -4717,36 +4788,36 @@
       <c r="B96" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C96" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="D96" s="6"/>
-      <c r="E96" s="6"/>
-      <c r="F96" s="6"/>
-      <c r="G96" s="6"/>
-      <c r="H96" s="6"/>
-      <c r="I96" s="6"/>
-      <c r="J96" s="6"/>
-      <c r="K96" s="6"/>
-      <c r="L96" s="6"/>
-      <c r="M96" s="6"/>
-      <c r="N96" s="6"/>
-      <c r="O96" s="6"/>
-      <c r="P96" s="6"/>
-      <c r="Q96" s="6"/>
-      <c r="R96" s="6"/>
-      <c r="S96" s="6"/>
-      <c r="T96" s="6"/>
-      <c r="U96" s="6"/>
-      <c r="V96" s="6"/>
-      <c r="W96" s="6"/>
-      <c r="X96" s="6"/>
-      <c r="Y96" s="6"/>
-      <c r="Z96" s="6"/>
-      <c r="AA96" s="6"/>
-      <c r="AB96" s="6"/>
-      <c r="AC96" s="6"/>
-      <c r="AD96" s="6"/>
+      <c r="C96" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="D96" s="9"/>
+      <c r="E96" s="9"/>
+      <c r="F96" s="9"/>
+      <c r="G96" s="9"/>
+      <c r="H96" s="9"/>
+      <c r="I96" s="9"/>
+      <c r="J96" s="9"/>
+      <c r="K96" s="9"/>
+      <c r="L96" s="9"/>
+      <c r="M96" s="9"/>
+      <c r="N96" s="9"/>
+      <c r="O96" s="9"/>
+      <c r="P96" s="9"/>
+      <c r="Q96" s="9"/>
+      <c r="R96" s="9"/>
+      <c r="S96" s="9"/>
+      <c r="T96" s="9"/>
+      <c r="U96" s="9"/>
+      <c r="V96" s="9"/>
+      <c r="W96" s="9"/>
+      <c r="X96" s="9"/>
+      <c r="Y96" s="9"/>
+      <c r="Z96" s="9"/>
+      <c r="AA96" s="9"/>
+      <c r="AB96" s="9"/>
+      <c r="AC96" s="9"/>
+      <c r="AD96" s="9"/>
     </row>
     <row r="97" spans="1:30">
       <c r="A97" s="3">
@@ -4756,36 +4827,36 @@
       <c r="B97" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C97" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="D97" s="6"/>
-      <c r="E97" s="6"/>
-      <c r="F97" s="6"/>
-      <c r="G97" s="6"/>
-      <c r="H97" s="6"/>
-      <c r="I97" s="6"/>
-      <c r="J97" s="6"/>
-      <c r="K97" s="6"/>
-      <c r="L97" s="6"/>
-      <c r="M97" s="6"/>
-      <c r="N97" s="6"/>
-      <c r="O97" s="6"/>
-      <c r="P97" s="6"/>
-      <c r="Q97" s="6"/>
-      <c r="R97" s="6"/>
-      <c r="S97" s="6"/>
-      <c r="T97" s="6"/>
-      <c r="U97" s="6"/>
-      <c r="V97" s="6"/>
-      <c r="W97" s="6"/>
-      <c r="X97" s="6"/>
-      <c r="Y97" s="6"/>
-      <c r="Z97" s="6"/>
-      <c r="AA97" s="6"/>
-      <c r="AB97" s="6"/>
-      <c r="AC97" s="6"/>
-      <c r="AD97" s="6"/>
+      <c r="C97" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="D97" s="9"/>
+      <c r="E97" s="9"/>
+      <c r="F97" s="9"/>
+      <c r="G97" s="9"/>
+      <c r="H97" s="9"/>
+      <c r="I97" s="9"/>
+      <c r="J97" s="9"/>
+      <c r="K97" s="9"/>
+      <c r="L97" s="9"/>
+      <c r="M97" s="9"/>
+      <c r="N97" s="9"/>
+      <c r="O97" s="9"/>
+      <c r="P97" s="9"/>
+      <c r="Q97" s="9"/>
+      <c r="R97" s="9"/>
+      <c r="S97" s="9"/>
+      <c r="T97" s="9"/>
+      <c r="U97" s="9"/>
+      <c r="V97" s="9"/>
+      <c r="W97" s="9"/>
+      <c r="X97" s="9"/>
+      <c r="Y97" s="9"/>
+      <c r="Z97" s="9"/>
+      <c r="AA97" s="9"/>
+      <c r="AB97" s="9"/>
+      <c r="AC97" s="9"/>
+      <c r="AD97" s="9"/>
     </row>
     <row r="98" spans="1:30">
       <c r="A98" s="3">
@@ -4795,36 +4866,36 @@
       <c r="B98" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C98" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="D98" s="6"/>
-      <c r="E98" s="6"/>
-      <c r="F98" s="6"/>
-      <c r="G98" s="6"/>
-      <c r="H98" s="6"/>
-      <c r="I98" s="6"/>
-      <c r="J98" s="6"/>
-      <c r="K98" s="6"/>
-      <c r="L98" s="6"/>
-      <c r="M98" s="6"/>
-      <c r="N98" s="6"/>
-      <c r="O98" s="6"/>
-      <c r="P98" s="6"/>
-      <c r="Q98" s="6"/>
-      <c r="R98" s="6"/>
-      <c r="S98" s="6"/>
-      <c r="T98" s="6"/>
-      <c r="U98" s="6"/>
-      <c r="V98" s="6"/>
-      <c r="W98" s="6"/>
-      <c r="X98" s="6"/>
-      <c r="Y98" s="6"/>
-      <c r="Z98" s="6"/>
-      <c r="AA98" s="6"/>
-      <c r="AB98" s="6"/>
-      <c r="AC98" s="6"/>
-      <c r="AD98" s="6"/>
+      <c r="C98" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="D98" s="9"/>
+      <c r="E98" s="9"/>
+      <c r="F98" s="9"/>
+      <c r="G98" s="9"/>
+      <c r="H98" s="9"/>
+      <c r="I98" s="9"/>
+      <c r="J98" s="9"/>
+      <c r="K98" s="9"/>
+      <c r="L98" s="9"/>
+      <c r="M98" s="9"/>
+      <c r="N98" s="9"/>
+      <c r="O98" s="9"/>
+      <c r="P98" s="9"/>
+      <c r="Q98" s="9"/>
+      <c r="R98" s="9"/>
+      <c r="S98" s="9"/>
+      <c r="T98" s="9"/>
+      <c r="U98" s="9"/>
+      <c r="V98" s="9"/>
+      <c r="W98" s="9"/>
+      <c r="X98" s="9"/>
+      <c r="Y98" s="9"/>
+      <c r="Z98" s="9"/>
+      <c r="AA98" s="9"/>
+      <c r="AB98" s="9"/>
+      <c r="AC98" s="9"/>
+      <c r="AD98" s="9"/>
     </row>
     <row r="99" spans="1:30">
       <c r="A99" s="3">
@@ -4834,36 +4905,36 @@
       <c r="B99" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C99" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="D99" s="6"/>
-      <c r="E99" s="6"/>
-      <c r="F99" s="6"/>
-      <c r="G99" s="6"/>
-      <c r="H99" s="6"/>
-      <c r="I99" s="6"/>
-      <c r="J99" s="6"/>
-      <c r="K99" s="6"/>
-      <c r="L99" s="6"/>
-      <c r="M99" s="6"/>
-      <c r="N99" s="6"/>
-      <c r="O99" s="6"/>
-      <c r="P99" s="6"/>
-      <c r="Q99" s="6"/>
-      <c r="R99" s="6"/>
-      <c r="S99" s="6"/>
-      <c r="T99" s="6"/>
-      <c r="U99" s="6"/>
-      <c r="V99" s="6"/>
-      <c r="W99" s="6"/>
-      <c r="X99" s="6"/>
-      <c r="Y99" s="6"/>
-      <c r="Z99" s="6"/>
-      <c r="AA99" s="6"/>
-      <c r="AB99" s="6"/>
-      <c r="AC99" s="6"/>
-      <c r="AD99" s="6"/>
+      <c r="C99" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="D99" s="9"/>
+      <c r="E99" s="9"/>
+      <c r="F99" s="9"/>
+      <c r="G99" s="9"/>
+      <c r="H99" s="9"/>
+      <c r="I99" s="9"/>
+      <c r="J99" s="9"/>
+      <c r="K99" s="9"/>
+      <c r="L99" s="9"/>
+      <c r="M99" s="9"/>
+      <c r="N99" s="9"/>
+      <c r="O99" s="9"/>
+      <c r="P99" s="9"/>
+      <c r="Q99" s="9"/>
+      <c r="R99" s="9"/>
+      <c r="S99" s="9"/>
+      <c r="T99" s="9"/>
+      <c r="U99" s="9"/>
+      <c r="V99" s="9"/>
+      <c r="W99" s="9"/>
+      <c r="X99" s="9"/>
+      <c r="Y99" s="9"/>
+      <c r="Z99" s="9"/>
+      <c r="AA99" s="9"/>
+      <c r="AB99" s="9"/>
+      <c r="AC99" s="9"/>
+      <c r="AD99" s="9"/>
     </row>
     <row r="100" spans="1:30">
       <c r="A100" s="3">
@@ -4873,36 +4944,36 @@
       <c r="B100" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C100" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="D100" s="6"/>
-      <c r="E100" s="6"/>
-      <c r="F100" s="6"/>
-      <c r="G100" s="6"/>
-      <c r="H100" s="6"/>
-      <c r="I100" s="6"/>
-      <c r="J100" s="6"/>
-      <c r="K100" s="6"/>
-      <c r="L100" s="6"/>
-      <c r="M100" s="6"/>
-      <c r="N100" s="6"/>
-      <c r="O100" s="6"/>
-      <c r="P100" s="6"/>
-      <c r="Q100" s="6"/>
-      <c r="R100" s="6"/>
-      <c r="S100" s="6"/>
-      <c r="T100" s="6"/>
-      <c r="U100" s="6"/>
-      <c r="V100" s="6"/>
-      <c r="W100" s="6"/>
-      <c r="X100" s="6"/>
-      <c r="Y100" s="6"/>
-      <c r="Z100" s="6"/>
-      <c r="AA100" s="6"/>
-      <c r="AB100" s="6"/>
-      <c r="AC100" s="6"/>
-      <c r="AD100" s="6"/>
+      <c r="C100" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="D100" s="9"/>
+      <c r="E100" s="9"/>
+      <c r="F100" s="9"/>
+      <c r="G100" s="9"/>
+      <c r="H100" s="9"/>
+      <c r="I100" s="9"/>
+      <c r="J100" s="9"/>
+      <c r="K100" s="9"/>
+      <c r="L100" s="9"/>
+      <c r="M100" s="9"/>
+      <c r="N100" s="9"/>
+      <c r="O100" s="9"/>
+      <c r="P100" s="9"/>
+      <c r="Q100" s="9"/>
+      <c r="R100" s="9"/>
+      <c r="S100" s="9"/>
+      <c r="T100" s="9"/>
+      <c r="U100" s="9"/>
+      <c r="V100" s="9"/>
+      <c r="W100" s="9"/>
+      <c r="X100" s="9"/>
+      <c r="Y100" s="9"/>
+      <c r="Z100" s="9"/>
+      <c r="AA100" s="9"/>
+      <c r="AB100" s="9"/>
+      <c r="AC100" s="9"/>
+      <c r="AD100" s="9"/>
     </row>
     <row r="101" spans="1:30">
       <c r="A101" s="3">
@@ -4912,36 +4983,36 @@
       <c r="B101" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C101" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="D101" s="6"/>
-      <c r="E101" s="6"/>
-      <c r="F101" s="6"/>
-      <c r="G101" s="6"/>
-      <c r="H101" s="6"/>
-      <c r="I101" s="6"/>
-      <c r="J101" s="6"/>
-      <c r="K101" s="6"/>
-      <c r="L101" s="6"/>
-      <c r="M101" s="6"/>
-      <c r="N101" s="6"/>
-      <c r="O101" s="6"/>
-      <c r="P101" s="6"/>
-      <c r="Q101" s="6"/>
-      <c r="R101" s="6"/>
-      <c r="S101" s="6"/>
-      <c r="T101" s="6"/>
-      <c r="U101" s="6"/>
-      <c r="V101" s="6"/>
-      <c r="W101" s="6"/>
-      <c r="X101" s="6"/>
-      <c r="Y101" s="6"/>
-      <c r="Z101" s="6"/>
-      <c r="AA101" s="6"/>
-      <c r="AB101" s="6"/>
-      <c r="AC101" s="6"/>
-      <c r="AD101" s="6"/>
+      <c r="C101" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="D101" s="9"/>
+      <c r="E101" s="9"/>
+      <c r="F101" s="9"/>
+      <c r="G101" s="9"/>
+      <c r="H101" s="9"/>
+      <c r="I101" s="9"/>
+      <c r="J101" s="9"/>
+      <c r="K101" s="9"/>
+      <c r="L101" s="9"/>
+      <c r="M101" s="9"/>
+      <c r="N101" s="9"/>
+      <c r="O101" s="9"/>
+      <c r="P101" s="9"/>
+      <c r="Q101" s="9"/>
+      <c r="R101" s="9"/>
+      <c r="S101" s="9"/>
+      <c r="T101" s="9"/>
+      <c r="U101" s="9"/>
+      <c r="V101" s="9"/>
+      <c r="W101" s="9"/>
+      <c r="X101" s="9"/>
+      <c r="Y101" s="9"/>
+      <c r="Z101" s="9"/>
+      <c r="AA101" s="9"/>
+      <c r="AB101" s="9"/>
+      <c r="AC101" s="9"/>
+      <c r="AD101" s="9"/>
     </row>
     <row r="102" spans="1:30">
       <c r="A102" s="3">
@@ -4951,36 +5022,36 @@
       <c r="B102" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C102" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="D102" s="6"/>
-      <c r="E102" s="6"/>
-      <c r="F102" s="6"/>
-      <c r="G102" s="6"/>
-      <c r="H102" s="6"/>
-      <c r="I102" s="6"/>
-      <c r="J102" s="6"/>
-      <c r="K102" s="6"/>
-      <c r="L102" s="6"/>
-      <c r="M102" s="6"/>
-      <c r="N102" s="6"/>
-      <c r="O102" s="6"/>
-      <c r="P102" s="6"/>
-      <c r="Q102" s="6"/>
-      <c r="R102" s="6"/>
-      <c r="S102" s="6"/>
-      <c r="T102" s="6"/>
-      <c r="U102" s="6"/>
-      <c r="V102" s="6"/>
-      <c r="W102" s="6"/>
-      <c r="X102" s="6"/>
-      <c r="Y102" s="6"/>
-      <c r="Z102" s="6"/>
-      <c r="AA102" s="6"/>
-      <c r="AB102" s="6"/>
-      <c r="AC102" s="6"/>
-      <c r="AD102" s="6"/>
+      <c r="C102" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="D102" s="9"/>
+      <c r="E102" s="9"/>
+      <c r="F102" s="9"/>
+      <c r="G102" s="9"/>
+      <c r="H102" s="9"/>
+      <c r="I102" s="9"/>
+      <c r="J102" s="9"/>
+      <c r="K102" s="9"/>
+      <c r="L102" s="9"/>
+      <c r="M102" s="9"/>
+      <c r="N102" s="9"/>
+      <c r="O102" s="9"/>
+      <c r="P102" s="9"/>
+      <c r="Q102" s="9"/>
+      <c r="R102" s="9"/>
+      <c r="S102" s="9"/>
+      <c r="T102" s="9"/>
+      <c r="U102" s="9"/>
+      <c r="V102" s="9"/>
+      <c r="W102" s="9"/>
+      <c r="X102" s="9"/>
+      <c r="Y102" s="9"/>
+      <c r="Z102" s="9"/>
+      <c r="AA102" s="9"/>
+      <c r="AB102" s="9"/>
+      <c r="AC102" s="9"/>
+      <c r="AD102" s="9"/>
     </row>
     <row r="103" spans="1:30">
       <c r="A103" s="3">
@@ -4990,36 +5061,36 @@
       <c r="B103" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C103" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="D103" s="6"/>
-      <c r="E103" s="6"/>
-      <c r="F103" s="6"/>
-      <c r="G103" s="6"/>
-      <c r="H103" s="6"/>
-      <c r="I103" s="6"/>
-      <c r="J103" s="6"/>
-      <c r="K103" s="6"/>
-      <c r="L103" s="6"/>
-      <c r="M103" s="6"/>
-      <c r="N103" s="6"/>
-      <c r="O103" s="6"/>
-      <c r="P103" s="6"/>
-      <c r="Q103" s="6"/>
-      <c r="R103" s="6"/>
-      <c r="S103" s="6"/>
-      <c r="T103" s="6"/>
-      <c r="U103" s="6"/>
-      <c r="V103" s="6"/>
-      <c r="W103" s="6"/>
-      <c r="X103" s="6"/>
-      <c r="Y103" s="6"/>
-      <c r="Z103" s="6"/>
-      <c r="AA103" s="6"/>
-      <c r="AB103" s="6"/>
-      <c r="AC103" s="6"/>
-      <c r="AD103" s="6"/>
+      <c r="C103" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="D103" s="9"/>
+      <c r="E103" s="9"/>
+      <c r="F103" s="9"/>
+      <c r="G103" s="9"/>
+      <c r="H103" s="9"/>
+      <c r="I103" s="9"/>
+      <c r="J103" s="9"/>
+      <c r="K103" s="9"/>
+      <c r="L103" s="9"/>
+      <c r="M103" s="9"/>
+      <c r="N103" s="9"/>
+      <c r="O103" s="9"/>
+      <c r="P103" s="9"/>
+      <c r="Q103" s="9"/>
+      <c r="R103" s="9"/>
+      <c r="S103" s="9"/>
+      <c r="T103" s="9"/>
+      <c r="U103" s="9"/>
+      <c r="V103" s="9"/>
+      <c r="W103" s="9"/>
+      <c r="X103" s="9"/>
+      <c r="Y103" s="9"/>
+      <c r="Z103" s="9"/>
+      <c r="AA103" s="9"/>
+      <c r="AB103" s="9"/>
+      <c r="AC103" s="9"/>
+      <c r="AD103" s="9"/>
     </row>
     <row r="104" spans="1:30">
       <c r="A104" s="3">
@@ -5029,36 +5100,36 @@
       <c r="B104" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C104" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="D104" s="6"/>
-      <c r="E104" s="6"/>
-      <c r="F104" s="6"/>
-      <c r="G104" s="6"/>
-      <c r="H104" s="6"/>
-      <c r="I104" s="6"/>
-      <c r="J104" s="6"/>
-      <c r="K104" s="6"/>
-      <c r="L104" s="6"/>
-      <c r="M104" s="6"/>
-      <c r="N104" s="6"/>
-      <c r="O104" s="6"/>
-      <c r="P104" s="6"/>
-      <c r="Q104" s="6"/>
-      <c r="R104" s="6"/>
-      <c r="S104" s="6"/>
-      <c r="T104" s="6"/>
-      <c r="U104" s="6"/>
-      <c r="V104" s="6"/>
-      <c r="W104" s="6"/>
-      <c r="X104" s="6"/>
-      <c r="Y104" s="6"/>
-      <c r="Z104" s="6"/>
-      <c r="AA104" s="6"/>
-      <c r="AB104" s="6"/>
-      <c r="AC104" s="6"/>
-      <c r="AD104" s="6"/>
+      <c r="C104" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="D104" s="9"/>
+      <c r="E104" s="9"/>
+      <c r="F104" s="9"/>
+      <c r="G104" s="9"/>
+      <c r="H104" s="9"/>
+      <c r="I104" s="9"/>
+      <c r="J104" s="9"/>
+      <c r="K104" s="9"/>
+      <c r="L104" s="9"/>
+      <c r="M104" s="9"/>
+      <c r="N104" s="9"/>
+      <c r="O104" s="9"/>
+      <c r="P104" s="9"/>
+      <c r="Q104" s="9"/>
+      <c r="R104" s="9"/>
+      <c r="S104" s="9"/>
+      <c r="T104" s="9"/>
+      <c r="U104" s="9"/>
+      <c r="V104" s="9"/>
+      <c r="W104" s="9"/>
+      <c r="X104" s="9"/>
+      <c r="Y104" s="9"/>
+      <c r="Z104" s="9"/>
+      <c r="AA104" s="9"/>
+      <c r="AB104" s="9"/>
+      <c r="AC104" s="9"/>
+      <c r="AD104" s="9"/>
     </row>
     <row r="105" spans="1:30">
       <c r="A105" s="3">
@@ -5068,36 +5139,36 @@
       <c r="B105" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C105" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="D105" s="6"/>
-      <c r="E105" s="6"/>
-      <c r="F105" s="6"/>
-      <c r="G105" s="6"/>
-      <c r="H105" s="6"/>
-      <c r="I105" s="6"/>
-      <c r="J105" s="6"/>
-      <c r="K105" s="6"/>
-      <c r="L105" s="6"/>
-      <c r="M105" s="6"/>
-      <c r="N105" s="6"/>
-      <c r="O105" s="6"/>
-      <c r="P105" s="6"/>
-      <c r="Q105" s="6"/>
-      <c r="R105" s="6"/>
-      <c r="S105" s="6"/>
-      <c r="T105" s="6"/>
-      <c r="U105" s="6"/>
-      <c r="V105" s="6"/>
-      <c r="W105" s="6"/>
-      <c r="X105" s="6"/>
-      <c r="Y105" s="6"/>
-      <c r="Z105" s="6"/>
-      <c r="AA105" s="6"/>
-      <c r="AB105" s="6"/>
-      <c r="AC105" s="6"/>
-      <c r="AD105" s="6"/>
+      <c r="C105" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="D105" s="9"/>
+      <c r="E105" s="9"/>
+      <c r="F105" s="9"/>
+      <c r="G105" s="9"/>
+      <c r="H105" s="9"/>
+      <c r="I105" s="9"/>
+      <c r="J105" s="9"/>
+      <c r="K105" s="9"/>
+      <c r="L105" s="9"/>
+      <c r="M105" s="9"/>
+      <c r="N105" s="9"/>
+      <c r="O105" s="9"/>
+      <c r="P105" s="9"/>
+      <c r="Q105" s="9"/>
+      <c r="R105" s="9"/>
+      <c r="S105" s="9"/>
+      <c r="T105" s="9"/>
+      <c r="U105" s="9"/>
+      <c r="V105" s="9"/>
+      <c r="W105" s="9"/>
+      <c r="X105" s="9"/>
+      <c r="Y105" s="9"/>
+      <c r="Z105" s="9"/>
+      <c r="AA105" s="9"/>
+      <c r="AB105" s="9"/>
+      <c r="AC105" s="9"/>
+      <c r="AD105" s="9"/>
     </row>
     <row r="106" spans="1:30">
       <c r="A106" s="3">
@@ -5107,36 +5178,36 @@
       <c r="B106" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C106" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="D106" s="6"/>
-      <c r="E106" s="6"/>
-      <c r="F106" s="6"/>
-      <c r="G106" s="6"/>
-      <c r="H106" s="6"/>
-      <c r="I106" s="6"/>
-      <c r="J106" s="6"/>
-      <c r="K106" s="6"/>
-      <c r="L106" s="6"/>
-      <c r="M106" s="6"/>
-      <c r="N106" s="6"/>
-      <c r="O106" s="6"/>
-      <c r="P106" s="6"/>
-      <c r="Q106" s="6"/>
-      <c r="R106" s="6"/>
-      <c r="S106" s="6"/>
-      <c r="T106" s="6"/>
-      <c r="U106" s="6"/>
-      <c r="V106" s="6"/>
-      <c r="W106" s="6"/>
-      <c r="X106" s="6"/>
-      <c r="Y106" s="6"/>
-      <c r="Z106" s="6"/>
-      <c r="AA106" s="6"/>
-      <c r="AB106" s="6"/>
-      <c r="AC106" s="6"/>
-      <c r="AD106" s="6"/>
+      <c r="C106" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="D106" s="9"/>
+      <c r="E106" s="9"/>
+      <c r="F106" s="9"/>
+      <c r="G106" s="9"/>
+      <c r="H106" s="9"/>
+      <c r="I106" s="9"/>
+      <c r="J106" s="9"/>
+      <c r="K106" s="9"/>
+      <c r="L106" s="9"/>
+      <c r="M106" s="9"/>
+      <c r="N106" s="9"/>
+      <c r="O106" s="9"/>
+      <c r="P106" s="9"/>
+      <c r="Q106" s="9"/>
+      <c r="R106" s="9"/>
+      <c r="S106" s="9"/>
+      <c r="T106" s="9"/>
+      <c r="U106" s="9"/>
+      <c r="V106" s="9"/>
+      <c r="W106" s="9"/>
+      <c r="X106" s="9"/>
+      <c r="Y106" s="9"/>
+      <c r="Z106" s="9"/>
+      <c r="AA106" s="9"/>
+      <c r="AB106" s="9"/>
+      <c r="AC106" s="9"/>
+      <c r="AD106" s="9"/>
     </row>
     <row r="107" spans="1:30">
       <c r="A107" s="3">
@@ -5146,36 +5217,36 @@
       <c r="B107" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C107" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="D107" s="6"/>
-      <c r="E107" s="6"/>
-      <c r="F107" s="6"/>
-      <c r="G107" s="6"/>
-      <c r="H107" s="6"/>
-      <c r="I107" s="6"/>
-      <c r="J107" s="6"/>
-      <c r="K107" s="6"/>
-      <c r="L107" s="6"/>
-      <c r="M107" s="6"/>
-      <c r="N107" s="6"/>
-      <c r="O107" s="6"/>
-      <c r="P107" s="6"/>
-      <c r="Q107" s="6"/>
-      <c r="R107" s="6"/>
-      <c r="S107" s="6"/>
-      <c r="T107" s="6"/>
-      <c r="U107" s="6"/>
-      <c r="V107" s="6"/>
-      <c r="W107" s="6"/>
-      <c r="X107" s="6"/>
-      <c r="Y107" s="6"/>
-      <c r="Z107" s="6"/>
-      <c r="AA107" s="6"/>
-      <c r="AB107" s="6"/>
-      <c r="AC107" s="6"/>
-      <c r="AD107" s="6"/>
+      <c r="C107" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="D107" s="9"/>
+      <c r="E107" s="9"/>
+      <c r="F107" s="9"/>
+      <c r="G107" s="9"/>
+      <c r="H107" s="9"/>
+      <c r="I107" s="9"/>
+      <c r="J107" s="9"/>
+      <c r="K107" s="9"/>
+      <c r="L107" s="9"/>
+      <c r="M107" s="9"/>
+      <c r="N107" s="9"/>
+      <c r="O107" s="9"/>
+      <c r="P107" s="9"/>
+      <c r="Q107" s="9"/>
+      <c r="R107" s="9"/>
+      <c r="S107" s="9"/>
+      <c r="T107" s="9"/>
+      <c r="U107" s="9"/>
+      <c r="V107" s="9"/>
+      <c r="W107" s="9"/>
+      <c r="X107" s="9"/>
+      <c r="Y107" s="9"/>
+      <c r="Z107" s="9"/>
+      <c r="AA107" s="9"/>
+      <c r="AB107" s="9"/>
+      <c r="AC107" s="9"/>
+      <c r="AD107" s="9"/>
     </row>
     <row r="108" spans="1:30">
       <c r="A108" s="3">
@@ -5185,36 +5256,36 @@
       <c r="B108" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C108" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="D108" s="6"/>
-      <c r="E108" s="6"/>
-      <c r="F108" s="6"/>
-      <c r="G108" s="6"/>
-      <c r="H108" s="6"/>
-      <c r="I108" s="6"/>
-      <c r="J108" s="6"/>
-      <c r="K108" s="6"/>
-      <c r="L108" s="6"/>
-      <c r="M108" s="6"/>
-      <c r="N108" s="6"/>
-      <c r="O108" s="6"/>
-      <c r="P108" s="6"/>
-      <c r="Q108" s="6"/>
-      <c r="R108" s="6"/>
-      <c r="S108" s="6"/>
-      <c r="T108" s="6"/>
-      <c r="U108" s="6"/>
-      <c r="V108" s="6"/>
-      <c r="W108" s="6"/>
-      <c r="X108" s="6"/>
-      <c r="Y108" s="6"/>
-      <c r="Z108" s="6"/>
-      <c r="AA108" s="6"/>
-      <c r="AB108" s="6"/>
-      <c r="AC108" s="6"/>
-      <c r="AD108" s="6"/>
+      <c r="C108" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="D108" s="9"/>
+      <c r="E108" s="9"/>
+      <c r="F108" s="9"/>
+      <c r="G108" s="9"/>
+      <c r="H108" s="9"/>
+      <c r="I108" s="9"/>
+      <c r="J108" s="9"/>
+      <c r="K108" s="9"/>
+      <c r="L108" s="9"/>
+      <c r="M108" s="9"/>
+      <c r="N108" s="9"/>
+      <c r="O108" s="9"/>
+      <c r="P108" s="9"/>
+      <c r="Q108" s="9"/>
+      <c r="R108" s="9"/>
+      <c r="S108" s="9"/>
+      <c r="T108" s="9"/>
+      <c r="U108" s="9"/>
+      <c r="V108" s="9"/>
+      <c r="W108" s="9"/>
+      <c r="X108" s="9"/>
+      <c r="Y108" s="9"/>
+      <c r="Z108" s="9"/>
+      <c r="AA108" s="9"/>
+      <c r="AB108" s="9"/>
+      <c r="AC108" s="9"/>
+      <c r="AD108" s="9"/>
     </row>
     <row r="109" spans="1:30">
       <c r="A109" s="3">
@@ -5224,36 +5295,36 @@
       <c r="B109" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C109" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="D109" s="6"/>
-      <c r="E109" s="6"/>
-      <c r="F109" s="6"/>
-      <c r="G109" s="6"/>
-      <c r="H109" s="6"/>
-      <c r="I109" s="6"/>
-      <c r="J109" s="6"/>
-      <c r="K109" s="6"/>
-      <c r="L109" s="6"/>
-      <c r="M109" s="6"/>
-      <c r="N109" s="6"/>
-      <c r="O109" s="6"/>
-      <c r="P109" s="6"/>
-      <c r="Q109" s="6"/>
-      <c r="R109" s="6"/>
-      <c r="S109" s="6"/>
-      <c r="T109" s="6"/>
-      <c r="U109" s="6"/>
-      <c r="V109" s="6"/>
-      <c r="W109" s="6"/>
-      <c r="X109" s="6"/>
-      <c r="Y109" s="6"/>
-      <c r="Z109" s="6"/>
-      <c r="AA109" s="6"/>
-      <c r="AB109" s="6"/>
-      <c r="AC109" s="6"/>
-      <c r="AD109" s="6"/>
+      <c r="C109" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="D109" s="9"/>
+      <c r="E109" s="9"/>
+      <c r="F109" s="9"/>
+      <c r="G109" s="9"/>
+      <c r="H109" s="9"/>
+      <c r="I109" s="9"/>
+      <c r="J109" s="9"/>
+      <c r="K109" s="9"/>
+      <c r="L109" s="9"/>
+      <c r="M109" s="9"/>
+      <c r="N109" s="9"/>
+      <c r="O109" s="9"/>
+      <c r="P109" s="9"/>
+      <c r="Q109" s="9"/>
+      <c r="R109" s="9"/>
+      <c r="S109" s="9"/>
+      <c r="T109" s="9"/>
+      <c r="U109" s="9"/>
+      <c r="V109" s="9"/>
+      <c r="W109" s="9"/>
+      <c r="X109" s="9"/>
+      <c r="Y109" s="9"/>
+      <c r="Z109" s="9"/>
+      <c r="AA109" s="9"/>
+      <c r="AB109" s="9"/>
+      <c r="AC109" s="9"/>
+      <c r="AD109" s="9"/>
     </row>
     <row r="110" spans="1:30">
       <c r="A110" s="3">
@@ -5263,36 +5334,36 @@
       <c r="B110" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C110" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="D110" s="6"/>
-      <c r="E110" s="6"/>
-      <c r="F110" s="6"/>
-      <c r="G110" s="6"/>
-      <c r="H110" s="6"/>
-      <c r="I110" s="6"/>
-      <c r="J110" s="6"/>
-      <c r="K110" s="6"/>
-      <c r="L110" s="6"/>
-      <c r="M110" s="6"/>
-      <c r="N110" s="6"/>
-      <c r="O110" s="6"/>
-      <c r="P110" s="6"/>
-      <c r="Q110" s="6"/>
-      <c r="R110" s="6"/>
-      <c r="S110" s="6"/>
-      <c r="T110" s="6"/>
-      <c r="U110" s="6"/>
-      <c r="V110" s="6"/>
-      <c r="W110" s="6"/>
-      <c r="X110" s="6"/>
-      <c r="Y110" s="6"/>
-      <c r="Z110" s="6"/>
-      <c r="AA110" s="6"/>
-      <c r="AB110" s="6"/>
-      <c r="AC110" s="6"/>
-      <c r="AD110" s="6"/>
+      <c r="C110" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="D110" s="9"/>
+      <c r="E110" s="9"/>
+      <c r="F110" s="9"/>
+      <c r="G110" s="9"/>
+      <c r="H110" s="9"/>
+      <c r="I110" s="9"/>
+      <c r="J110" s="9"/>
+      <c r="K110" s="9"/>
+      <c r="L110" s="9"/>
+      <c r="M110" s="9"/>
+      <c r="N110" s="9"/>
+      <c r="O110" s="9"/>
+      <c r="P110" s="9"/>
+      <c r="Q110" s="9"/>
+      <c r="R110" s="9"/>
+      <c r="S110" s="9"/>
+      <c r="T110" s="9"/>
+      <c r="U110" s="9"/>
+      <c r="V110" s="9"/>
+      <c r="W110" s="9"/>
+      <c r="X110" s="9"/>
+      <c r="Y110" s="9"/>
+      <c r="Z110" s="9"/>
+      <c r="AA110" s="9"/>
+      <c r="AB110" s="9"/>
+      <c r="AC110" s="9"/>
+      <c r="AD110" s="9"/>
     </row>
     <row r="111" spans="1:30">
       <c r="A111" s="3">
@@ -5302,36 +5373,36 @@
       <c r="B111" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C111" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="D111" s="6"/>
-      <c r="E111" s="6"/>
-      <c r="F111" s="6"/>
-      <c r="G111" s="6"/>
-      <c r="H111" s="6"/>
-      <c r="I111" s="6"/>
-      <c r="J111" s="6"/>
-      <c r="K111" s="6"/>
-      <c r="L111" s="6"/>
-      <c r="M111" s="6"/>
-      <c r="N111" s="6"/>
-      <c r="O111" s="6"/>
-      <c r="P111" s="6"/>
-      <c r="Q111" s="6"/>
-      <c r="R111" s="6"/>
-      <c r="S111" s="6"/>
-      <c r="T111" s="6"/>
-      <c r="U111" s="6"/>
-      <c r="V111" s="6"/>
-      <c r="W111" s="6"/>
-      <c r="X111" s="6"/>
-      <c r="Y111" s="6"/>
-      <c r="Z111" s="6"/>
-      <c r="AA111" s="6"/>
-      <c r="AB111" s="6"/>
-      <c r="AC111" s="6"/>
-      <c r="AD111" s="6"/>
+      <c r="C111" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="D111" s="9"/>
+      <c r="E111" s="9"/>
+      <c r="F111" s="9"/>
+      <c r="G111" s="9"/>
+      <c r="H111" s="9"/>
+      <c r="I111" s="9"/>
+      <c r="J111" s="9"/>
+      <c r="K111" s="9"/>
+      <c r="L111" s="9"/>
+      <c r="M111" s="9"/>
+      <c r="N111" s="9"/>
+      <c r="O111" s="9"/>
+      <c r="P111" s="9"/>
+      <c r="Q111" s="9"/>
+      <c r="R111" s="9"/>
+      <c r="S111" s="9"/>
+      <c r="T111" s="9"/>
+      <c r="U111" s="9"/>
+      <c r="V111" s="9"/>
+      <c r="W111" s="9"/>
+      <c r="X111" s="9"/>
+      <c r="Y111" s="9"/>
+      <c r="Z111" s="9"/>
+      <c r="AA111" s="9"/>
+      <c r="AB111" s="9"/>
+      <c r="AC111" s="9"/>
+      <c r="AD111" s="9"/>
     </row>
     <row r="112" spans="1:30">
       <c r="A112" s="3">
@@ -5341,36 +5412,36 @@
       <c r="B112" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C112" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="D112" s="6"/>
-      <c r="E112" s="6"/>
-      <c r="F112" s="6"/>
-      <c r="G112" s="6"/>
-      <c r="H112" s="6"/>
-      <c r="I112" s="6"/>
-      <c r="J112" s="6"/>
-      <c r="K112" s="6"/>
-      <c r="L112" s="6"/>
-      <c r="M112" s="6"/>
-      <c r="N112" s="6"/>
-      <c r="O112" s="6"/>
-      <c r="P112" s="6"/>
-      <c r="Q112" s="6"/>
-      <c r="R112" s="6"/>
-      <c r="S112" s="6"/>
-      <c r="T112" s="6"/>
-      <c r="U112" s="6"/>
-      <c r="V112" s="6"/>
-      <c r="W112" s="6"/>
-      <c r="X112" s="6"/>
-      <c r="Y112" s="6"/>
-      <c r="Z112" s="6"/>
-      <c r="AA112" s="6"/>
-      <c r="AB112" s="6"/>
-      <c r="AC112" s="6"/>
-      <c r="AD112" s="6"/>
+      <c r="C112" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="D112" s="9"/>
+      <c r="E112" s="9"/>
+      <c r="F112" s="9"/>
+      <c r="G112" s="9"/>
+      <c r="H112" s="9"/>
+      <c r="I112" s="9"/>
+      <c r="J112" s="9"/>
+      <c r="K112" s="9"/>
+      <c r="L112" s="9"/>
+      <c r="M112" s="9"/>
+      <c r="N112" s="9"/>
+      <c r="O112" s="9"/>
+      <c r="P112" s="9"/>
+      <c r="Q112" s="9"/>
+      <c r="R112" s="9"/>
+      <c r="S112" s="9"/>
+      <c r="T112" s="9"/>
+      <c r="U112" s="9"/>
+      <c r="V112" s="9"/>
+      <c r="W112" s="9"/>
+      <c r="X112" s="9"/>
+      <c r="Y112" s="9"/>
+      <c r="Z112" s="9"/>
+      <c r="AA112" s="9"/>
+      <c r="AB112" s="9"/>
+      <c r="AC112" s="9"/>
+      <c r="AD112" s="9"/>
     </row>
     <row r="113" spans="1:30">
       <c r="A113" s="3">
@@ -5380,36 +5451,36 @@
       <c r="B113" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C113" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="D113" s="6"/>
-      <c r="E113" s="6"/>
-      <c r="F113" s="6"/>
-      <c r="G113" s="6"/>
-      <c r="H113" s="6"/>
-      <c r="I113" s="6"/>
-      <c r="J113" s="6"/>
-      <c r="K113" s="6"/>
-      <c r="L113" s="6"/>
-      <c r="M113" s="6"/>
-      <c r="N113" s="6"/>
-      <c r="O113" s="6"/>
-      <c r="P113" s="6"/>
-      <c r="Q113" s="6"/>
-      <c r="R113" s="6"/>
-      <c r="S113" s="6"/>
-      <c r="T113" s="6"/>
-      <c r="U113" s="6"/>
-      <c r="V113" s="6"/>
-      <c r="W113" s="6"/>
-      <c r="X113" s="6"/>
-      <c r="Y113" s="6"/>
-      <c r="Z113" s="6"/>
-      <c r="AA113" s="6"/>
-      <c r="AB113" s="6"/>
-      <c r="AC113" s="6"/>
-      <c r="AD113" s="6"/>
+      <c r="C113" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="D113" s="9"/>
+      <c r="E113" s="9"/>
+      <c r="F113" s="9"/>
+      <c r="G113" s="9"/>
+      <c r="H113" s="9"/>
+      <c r="I113" s="9"/>
+      <c r="J113" s="9"/>
+      <c r="K113" s="9"/>
+      <c r="L113" s="9"/>
+      <c r="M113" s="9"/>
+      <c r="N113" s="9"/>
+      <c r="O113" s="9"/>
+      <c r="P113" s="9"/>
+      <c r="Q113" s="9"/>
+      <c r="R113" s="9"/>
+      <c r="S113" s="9"/>
+      <c r="T113" s="9"/>
+      <c r="U113" s="9"/>
+      <c r="V113" s="9"/>
+      <c r="W113" s="9"/>
+      <c r="X113" s="9"/>
+      <c r="Y113" s="9"/>
+      <c r="Z113" s="9"/>
+      <c r="AA113" s="9"/>
+      <c r="AB113" s="9"/>
+      <c r="AC113" s="9"/>
+      <c r="AD113" s="9"/>
     </row>
     <row r="114" spans="1:30">
       <c r="A114" s="3">
@@ -5419,36 +5490,36 @@
       <c r="B114" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C114" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="D114" s="6"/>
-      <c r="E114" s="6"/>
-      <c r="F114" s="6"/>
-      <c r="G114" s="6"/>
-      <c r="H114" s="6"/>
-      <c r="I114" s="6"/>
-      <c r="J114" s="6"/>
-      <c r="K114" s="6"/>
-      <c r="L114" s="6"/>
-      <c r="M114" s="6"/>
-      <c r="N114" s="6"/>
-      <c r="O114" s="6"/>
-      <c r="P114" s="6"/>
-      <c r="Q114" s="6"/>
-      <c r="R114" s="6"/>
-      <c r="S114" s="6"/>
-      <c r="T114" s="6"/>
-      <c r="U114" s="6"/>
-      <c r="V114" s="6"/>
-      <c r="W114" s="6"/>
-      <c r="X114" s="6"/>
-      <c r="Y114" s="6"/>
-      <c r="Z114" s="6"/>
-      <c r="AA114" s="6"/>
-      <c r="AB114" s="6"/>
-      <c r="AC114" s="6"/>
-      <c r="AD114" s="6"/>
+      <c r="C114" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="D114" s="9"/>
+      <c r="E114" s="9"/>
+      <c r="F114" s="9"/>
+      <c r="G114" s="9"/>
+      <c r="H114" s="9"/>
+      <c r="I114" s="9"/>
+      <c r="J114" s="9"/>
+      <c r="K114" s="9"/>
+      <c r="L114" s="9"/>
+      <c r="M114" s="9"/>
+      <c r="N114" s="9"/>
+      <c r="O114" s="9"/>
+      <c r="P114" s="9"/>
+      <c r="Q114" s="9"/>
+      <c r="R114" s="9"/>
+      <c r="S114" s="9"/>
+      <c r="T114" s="9"/>
+      <c r="U114" s="9"/>
+      <c r="V114" s="9"/>
+      <c r="W114" s="9"/>
+      <c r="X114" s="9"/>
+      <c r="Y114" s="9"/>
+      <c r="Z114" s="9"/>
+      <c r="AA114" s="9"/>
+      <c r="AB114" s="9"/>
+      <c r="AC114" s="9"/>
+      <c r="AD114" s="9"/>
     </row>
     <row r="115" spans="1:30">
       <c r="A115" s="3">
@@ -5458,36 +5529,36 @@
       <c r="B115" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C115" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="D115" s="6"/>
-      <c r="E115" s="6"/>
-      <c r="F115" s="6"/>
-      <c r="G115" s="6"/>
-      <c r="H115" s="6"/>
-      <c r="I115" s="6"/>
-      <c r="J115" s="6"/>
-      <c r="K115" s="6"/>
-      <c r="L115" s="6"/>
-      <c r="M115" s="6"/>
-      <c r="N115" s="6"/>
-      <c r="O115" s="6"/>
-      <c r="P115" s="6"/>
-      <c r="Q115" s="6"/>
-      <c r="R115" s="6"/>
-      <c r="S115" s="6"/>
-      <c r="T115" s="6"/>
-      <c r="U115" s="6"/>
-      <c r="V115" s="6"/>
-      <c r="W115" s="6"/>
-      <c r="X115" s="6"/>
-      <c r="Y115" s="6"/>
-      <c r="Z115" s="6"/>
-      <c r="AA115" s="6"/>
-      <c r="AB115" s="6"/>
-      <c r="AC115" s="6"/>
-      <c r="AD115" s="6"/>
+      <c r="C115" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="D115" s="9"/>
+      <c r="E115" s="9"/>
+      <c r="F115" s="9"/>
+      <c r="G115" s="9"/>
+      <c r="H115" s="9"/>
+      <c r="I115" s="9"/>
+      <c r="J115" s="9"/>
+      <c r="K115" s="9"/>
+      <c r="L115" s="9"/>
+      <c r="M115" s="9"/>
+      <c r="N115" s="9"/>
+      <c r="O115" s="9"/>
+      <c r="P115" s="9"/>
+      <c r="Q115" s="9"/>
+      <c r="R115" s="9"/>
+      <c r="S115" s="9"/>
+      <c r="T115" s="9"/>
+      <c r="U115" s="9"/>
+      <c r="V115" s="9"/>
+      <c r="W115" s="9"/>
+      <c r="X115" s="9"/>
+      <c r="Y115" s="9"/>
+      <c r="Z115" s="9"/>
+      <c r="AA115" s="9"/>
+      <c r="AB115" s="9"/>
+      <c r="AC115" s="9"/>
+      <c r="AD115" s="9"/>
     </row>
     <row r="116" spans="1:30">
       <c r="A116" s="3">
@@ -5497,36 +5568,36 @@
       <c r="B116" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C116" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="D116" s="6"/>
-      <c r="E116" s="6"/>
-      <c r="F116" s="6"/>
-      <c r="G116" s="6"/>
-      <c r="H116" s="6"/>
-      <c r="I116" s="6"/>
-      <c r="J116" s="6"/>
-      <c r="K116" s="6"/>
-      <c r="L116" s="6"/>
-      <c r="M116" s="6"/>
-      <c r="N116" s="6"/>
-      <c r="O116" s="6"/>
-      <c r="P116" s="6"/>
-      <c r="Q116" s="6"/>
-      <c r="R116" s="6"/>
-      <c r="S116" s="6"/>
-      <c r="T116" s="6"/>
-      <c r="U116" s="6"/>
-      <c r="V116" s="6"/>
-      <c r="W116" s="6"/>
-      <c r="X116" s="6"/>
-      <c r="Y116" s="6"/>
-      <c r="Z116" s="6"/>
-      <c r="AA116" s="6"/>
-      <c r="AB116" s="6"/>
-      <c r="AC116" s="6"/>
-      <c r="AD116" s="6"/>
+      <c r="C116" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="D116" s="9"/>
+      <c r="E116" s="9"/>
+      <c r="F116" s="9"/>
+      <c r="G116" s="9"/>
+      <c r="H116" s="9"/>
+      <c r="I116" s="9"/>
+      <c r="J116" s="9"/>
+      <c r="K116" s="9"/>
+      <c r="L116" s="9"/>
+      <c r="M116" s="9"/>
+      <c r="N116" s="9"/>
+      <c r="O116" s="9"/>
+      <c r="P116" s="9"/>
+      <c r="Q116" s="9"/>
+      <c r="R116" s="9"/>
+      <c r="S116" s="9"/>
+      <c r="T116" s="9"/>
+      <c r="U116" s="9"/>
+      <c r="V116" s="9"/>
+      <c r="W116" s="9"/>
+      <c r="X116" s="9"/>
+      <c r="Y116" s="9"/>
+      <c r="Z116" s="9"/>
+      <c r="AA116" s="9"/>
+      <c r="AB116" s="9"/>
+      <c r="AC116" s="9"/>
+      <c r="AD116" s="9"/>
     </row>
     <row r="117" spans="1:30">
       <c r="A117" s="3">
@@ -5536,36 +5607,36 @@
       <c r="B117" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C117" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="D117" s="6"/>
-      <c r="E117" s="6"/>
-      <c r="F117" s="6"/>
-      <c r="G117" s="6"/>
-      <c r="H117" s="6"/>
-      <c r="I117" s="6"/>
-      <c r="J117" s="6"/>
-      <c r="K117" s="6"/>
-      <c r="L117" s="6"/>
-      <c r="M117" s="6"/>
-      <c r="N117" s="6"/>
-      <c r="O117" s="6"/>
-      <c r="P117" s="6"/>
-      <c r="Q117" s="6"/>
-      <c r="R117" s="6"/>
-      <c r="S117" s="6"/>
-      <c r="T117" s="6"/>
-      <c r="U117" s="6"/>
-      <c r="V117" s="6"/>
-      <c r="W117" s="6"/>
-      <c r="X117" s="6"/>
-      <c r="Y117" s="6"/>
-      <c r="Z117" s="6"/>
-      <c r="AA117" s="6"/>
-      <c r="AB117" s="6"/>
-      <c r="AC117" s="6"/>
-      <c r="AD117" s="6"/>
+      <c r="C117" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="D117" s="9"/>
+      <c r="E117" s="9"/>
+      <c r="F117" s="9"/>
+      <c r="G117" s="9"/>
+      <c r="H117" s="9"/>
+      <c r="I117" s="9"/>
+      <c r="J117" s="9"/>
+      <c r="K117" s="9"/>
+      <c r="L117" s="9"/>
+      <c r="M117" s="9"/>
+      <c r="N117" s="9"/>
+      <c r="O117" s="9"/>
+      <c r="P117" s="9"/>
+      <c r="Q117" s="9"/>
+      <c r="R117" s="9"/>
+      <c r="S117" s="9"/>
+      <c r="T117" s="9"/>
+      <c r="U117" s="9"/>
+      <c r="V117" s="9"/>
+      <c r="W117" s="9"/>
+      <c r="X117" s="9"/>
+      <c r="Y117" s="9"/>
+      <c r="Z117" s="9"/>
+      <c r="AA117" s="9"/>
+      <c r="AB117" s="9"/>
+      <c r="AC117" s="9"/>
+      <c r="AD117" s="9"/>
     </row>
     <row r="118" spans="1:30">
       <c r="A118" s="3">
@@ -5575,36 +5646,36 @@
       <c r="B118" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C118" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="D118" s="6"/>
-      <c r="E118" s="6"/>
-      <c r="F118" s="6"/>
-      <c r="G118" s="6"/>
-      <c r="H118" s="6"/>
-      <c r="I118" s="6"/>
-      <c r="J118" s="6"/>
-      <c r="K118" s="6"/>
-      <c r="L118" s="6"/>
-      <c r="M118" s="6"/>
-      <c r="N118" s="6"/>
-      <c r="O118" s="6"/>
-      <c r="P118" s="6"/>
-      <c r="Q118" s="6"/>
-      <c r="R118" s="6"/>
-      <c r="S118" s="6"/>
-      <c r="T118" s="6"/>
-      <c r="U118" s="6"/>
-      <c r="V118" s="6"/>
-      <c r="W118" s="6"/>
-      <c r="X118" s="6"/>
-      <c r="Y118" s="6"/>
-      <c r="Z118" s="6"/>
-      <c r="AA118" s="6"/>
-      <c r="AB118" s="6"/>
-      <c r="AC118" s="6"/>
-      <c r="AD118" s="6"/>
+      <c r="C118" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="D118" s="9"/>
+      <c r="E118" s="9"/>
+      <c r="F118" s="9"/>
+      <c r="G118" s="9"/>
+      <c r="H118" s="9"/>
+      <c r="I118" s="9"/>
+      <c r="J118" s="9"/>
+      <c r="K118" s="9"/>
+      <c r="L118" s="9"/>
+      <c r="M118" s="9"/>
+      <c r="N118" s="9"/>
+      <c r="O118" s="9"/>
+      <c r="P118" s="9"/>
+      <c r="Q118" s="9"/>
+      <c r="R118" s="9"/>
+      <c r="S118" s="9"/>
+      <c r="T118" s="9"/>
+      <c r="U118" s="9"/>
+      <c r="V118" s="9"/>
+      <c r="W118" s="9"/>
+      <c r="X118" s="9"/>
+      <c r="Y118" s="9"/>
+      <c r="Z118" s="9"/>
+      <c r="AA118" s="9"/>
+      <c r="AB118" s="9"/>
+      <c r="AC118" s="9"/>
+      <c r="AD118" s="9"/>
     </row>
     <row r="119" spans="1:30">
       <c r="A119" s="3">
@@ -5614,36 +5685,36 @@
       <c r="B119" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C119" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="D119" s="6"/>
-      <c r="E119" s="6"/>
-      <c r="F119" s="6"/>
-      <c r="G119" s="6"/>
-      <c r="H119" s="6"/>
-      <c r="I119" s="6"/>
-      <c r="J119" s="6"/>
-      <c r="K119" s="6"/>
-      <c r="L119" s="6"/>
-      <c r="M119" s="6"/>
-      <c r="N119" s="6"/>
-      <c r="O119" s="6"/>
-      <c r="P119" s="6"/>
-      <c r="Q119" s="6"/>
-      <c r="R119" s="6"/>
-      <c r="S119" s="6"/>
-      <c r="T119" s="6"/>
-      <c r="U119" s="6"/>
-      <c r="V119" s="6"/>
-      <c r="W119" s="6"/>
-      <c r="X119" s="6"/>
-      <c r="Y119" s="6"/>
-      <c r="Z119" s="6"/>
-      <c r="AA119" s="6"/>
-      <c r="AB119" s="6"/>
-      <c r="AC119" s="6"/>
-      <c r="AD119" s="6"/>
+      <c r="C119" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="D119" s="9"/>
+      <c r="E119" s="9"/>
+      <c r="F119" s="9"/>
+      <c r="G119" s="9"/>
+      <c r="H119" s="9"/>
+      <c r="I119" s="9"/>
+      <c r="J119" s="9"/>
+      <c r="K119" s="9"/>
+      <c r="L119" s="9"/>
+      <c r="M119" s="9"/>
+      <c r="N119" s="9"/>
+      <c r="O119" s="9"/>
+      <c r="P119" s="9"/>
+      <c r="Q119" s="9"/>
+      <c r="R119" s="9"/>
+      <c r="S119" s="9"/>
+      <c r="T119" s="9"/>
+      <c r="U119" s="9"/>
+      <c r="V119" s="9"/>
+      <c r="W119" s="9"/>
+      <c r="X119" s="9"/>
+      <c r="Y119" s="9"/>
+      <c r="Z119" s="9"/>
+      <c r="AA119" s="9"/>
+      <c r="AB119" s="9"/>
+      <c r="AC119" s="9"/>
+      <c r="AD119" s="9"/>
     </row>
     <row r="120" spans="1:30">
       <c r="A120" s="3">
@@ -5653,45 +5724,54 @@
       <c r="B120" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C120" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="D120" s="6"/>
-      <c r="E120" s="6"/>
-      <c r="F120" s="6"/>
-      <c r="G120" s="6"/>
-      <c r="H120" s="6"/>
-      <c r="I120" s="6"/>
-      <c r="J120" s="6"/>
-      <c r="K120" s="6"/>
-      <c r="L120" s="6"/>
-      <c r="M120" s="6"/>
-      <c r="N120" s="6"/>
-      <c r="O120" s="6"/>
-      <c r="P120" s="6"/>
-      <c r="Q120" s="6"/>
-      <c r="R120" s="6"/>
-      <c r="S120" s="6"/>
-      <c r="T120" s="6"/>
-      <c r="U120" s="6"/>
-      <c r="V120" s="6"/>
-      <c r="W120" s="6"/>
-      <c r="X120" s="6"/>
-      <c r="Y120" s="6"/>
-      <c r="Z120" s="6"/>
-      <c r="AA120" s="6"/>
-      <c r="AB120" s="6"/>
-      <c r="AC120" s="6"/>
-      <c r="AD120" s="6"/>
+      <c r="C120" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="D120" s="9"/>
+      <c r="E120" s="9"/>
+      <c r="F120" s="9"/>
+      <c r="G120" s="9"/>
+      <c r="H120" s="9"/>
+      <c r="I120" s="9"/>
+      <c r="J120" s="9"/>
+      <c r="K120" s="9"/>
+      <c r="L120" s="9"/>
+      <c r="M120" s="9"/>
+      <c r="N120" s="9"/>
+      <c r="O120" s="9"/>
+      <c r="P120" s="9"/>
+      <c r="Q120" s="9"/>
+      <c r="R120" s="9"/>
+      <c r="S120" s="9"/>
+      <c r="T120" s="9"/>
+      <c r="U120" s="9"/>
+      <c r="V120" s="9"/>
+      <c r="W120" s="9"/>
+      <c r="X120" s="9"/>
+      <c r="Y120" s="9"/>
+      <c r="Z120" s="9"/>
+      <c r="AA120" s="9"/>
+      <c r="AB120" s="9"/>
+      <c r="AC120" s="9"/>
+      <c r="AD120" s="9"/>
     </row>
     <row r="121" spans="1:30">
       <c r="A121" s="3">
         <f t="shared" si="2"/>
         <v>128</v>
       </c>
-      <c r="C121" s="2"/>
-      <c r="D121" s="2"/>
-      <c r="E121" s="2"/>
+      <c r="B121" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="C121" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="D121" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E121" s="2" t="s">
+        <v>139</v>
+      </c>
       <c r="F121" s="2"/>
       <c r="G121" s="2"/>
       <c r="H121" s="2"/>
@@ -5905,7 +5985,84 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="102">
+  <mergeCells count="101">
+    <mergeCell ref="C118:AD118"/>
+    <mergeCell ref="C119:AD119"/>
+    <mergeCell ref="C120:AD120"/>
+    <mergeCell ref="W15:AD15"/>
+    <mergeCell ref="C109:AD109"/>
+    <mergeCell ref="C110:AD110"/>
+    <mergeCell ref="C111:AD111"/>
+    <mergeCell ref="C112:AD112"/>
+    <mergeCell ref="C113:AD113"/>
+    <mergeCell ref="C114:AD114"/>
+    <mergeCell ref="C115:AD115"/>
+    <mergeCell ref="C116:AD116"/>
+    <mergeCell ref="C117:AD117"/>
+    <mergeCell ref="C100:AD100"/>
+    <mergeCell ref="C101:AD101"/>
+    <mergeCell ref="C107:AD107"/>
+    <mergeCell ref="C108:AD108"/>
+    <mergeCell ref="C90:AD90"/>
+    <mergeCell ref="C91:AD91"/>
+    <mergeCell ref="C92:AD92"/>
+    <mergeCell ref="C94:AD94"/>
+    <mergeCell ref="C95:AD95"/>
+    <mergeCell ref="C96:AD96"/>
+    <mergeCell ref="C97:AD97"/>
+    <mergeCell ref="C22:AD22"/>
+    <mergeCell ref="C98:AD98"/>
+    <mergeCell ref="C99:AD99"/>
+    <mergeCell ref="C102:AD102"/>
+    <mergeCell ref="C103:AD103"/>
+    <mergeCell ref="C104:AD104"/>
+    <mergeCell ref="C105:AD105"/>
+    <mergeCell ref="C106:AD106"/>
+    <mergeCell ref="C88:AD88"/>
+    <mergeCell ref="C89:AD89"/>
+    <mergeCell ref="C77:AD77"/>
+    <mergeCell ref="C78:AD78"/>
+    <mergeCell ref="C79:AD79"/>
+    <mergeCell ref="C59:AD59"/>
+    <mergeCell ref="C60:AD60"/>
+    <mergeCell ref="C61:AD61"/>
+    <mergeCell ref="C81:AD81"/>
+    <mergeCell ref="C82:AD82"/>
+    <mergeCell ref="C80:AD80"/>
+    <mergeCell ref="C62:AD62"/>
+    <mergeCell ref="C11:AD11"/>
+    <mergeCell ref="AC8:AD8"/>
+    <mergeCell ref="C12:AD12"/>
+    <mergeCell ref="C16:AD16"/>
+    <mergeCell ref="C17:AD17"/>
+    <mergeCell ref="C18:AD18"/>
+    <mergeCell ref="C52:AD52"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="K13:AD13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="K14:AD14"/>
+    <mergeCell ref="G15:V15"/>
+    <mergeCell ref="C26:AD26"/>
+    <mergeCell ref="C33:AD33"/>
+    <mergeCell ref="C38:AD38"/>
+    <mergeCell ref="C43:AD43"/>
+    <mergeCell ref="C19:AD19"/>
+    <mergeCell ref="C20:AD20"/>
+    <mergeCell ref="C21:AD21"/>
+    <mergeCell ref="H10:K10"/>
+    <mergeCell ref="L10:O10"/>
+    <mergeCell ref="C9:F9"/>
+    <mergeCell ref="G9:J9"/>
+    <mergeCell ref="K9:N9"/>
+    <mergeCell ref="O9:R9"/>
+    <mergeCell ref="S9:V9"/>
+    <mergeCell ref="AC9:AD9"/>
+    <mergeCell ref="P10:AD10"/>
     <mergeCell ref="AE1:AF1"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="W8:X8"/>
@@ -5930,84 +6087,6 @@
     <mergeCell ref="C10:D10"/>
     <mergeCell ref="G14:H14"/>
     <mergeCell ref="X9:Y9"/>
-    <mergeCell ref="H10:K10"/>
-    <mergeCell ref="L10:O10"/>
-    <mergeCell ref="C9:F9"/>
-    <mergeCell ref="G9:J9"/>
-    <mergeCell ref="K9:N9"/>
-    <mergeCell ref="O9:R9"/>
-    <mergeCell ref="S9:V9"/>
-    <mergeCell ref="AC9:AD9"/>
-    <mergeCell ref="P10:AD10"/>
-    <mergeCell ref="C11:AD11"/>
-    <mergeCell ref="AC8:AD8"/>
-    <mergeCell ref="C12:AD12"/>
-    <mergeCell ref="C16:AD16"/>
-    <mergeCell ref="C17:AD17"/>
-    <mergeCell ref="C18:AD18"/>
-    <mergeCell ref="C52:AD52"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="K13:AD13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="K14:AD14"/>
-    <mergeCell ref="C76:AD76"/>
-    <mergeCell ref="C77:AD77"/>
-    <mergeCell ref="C78:AD78"/>
-    <mergeCell ref="C79:AD79"/>
-    <mergeCell ref="C59:AD59"/>
-    <mergeCell ref="C60:AD60"/>
-    <mergeCell ref="C61:AD61"/>
-    <mergeCell ref="C81:AD81"/>
-    <mergeCell ref="C82:AD82"/>
-    <mergeCell ref="C80:AD80"/>
-    <mergeCell ref="G15:V15"/>
-    <mergeCell ref="C62:AD62"/>
-    <mergeCell ref="C26:AD26"/>
-    <mergeCell ref="C33:AD33"/>
-    <mergeCell ref="C38:AD38"/>
-    <mergeCell ref="C43:AD43"/>
-    <mergeCell ref="C19:AD19"/>
-    <mergeCell ref="C20:AD20"/>
-    <mergeCell ref="C21:AD21"/>
-    <mergeCell ref="C22:AD22"/>
-    <mergeCell ref="C98:AD98"/>
-    <mergeCell ref="C99:AD99"/>
-    <mergeCell ref="C102:AD102"/>
-    <mergeCell ref="C103:AD103"/>
-    <mergeCell ref="C104:AD104"/>
-    <mergeCell ref="C105:AD105"/>
-    <mergeCell ref="C106:AD106"/>
-    <mergeCell ref="C88:AD88"/>
-    <mergeCell ref="C89:AD89"/>
-    <mergeCell ref="C118:AD118"/>
-    <mergeCell ref="C119:AD119"/>
-    <mergeCell ref="C120:AD120"/>
-    <mergeCell ref="W15:AD15"/>
-    <mergeCell ref="C109:AD109"/>
-    <mergeCell ref="C110:AD110"/>
-    <mergeCell ref="C111:AD111"/>
-    <mergeCell ref="C112:AD112"/>
-    <mergeCell ref="C113:AD113"/>
-    <mergeCell ref="C114:AD114"/>
-    <mergeCell ref="C115:AD115"/>
-    <mergeCell ref="C116:AD116"/>
-    <mergeCell ref="C117:AD117"/>
-    <mergeCell ref="C100:AD100"/>
-    <mergeCell ref="C101:AD101"/>
-    <mergeCell ref="C107:AD107"/>
-    <mergeCell ref="C108:AD108"/>
-    <mergeCell ref="C90:AD90"/>
-    <mergeCell ref="C91:AD91"/>
-    <mergeCell ref="C92:AD92"/>
-    <mergeCell ref="C94:AD94"/>
-    <mergeCell ref="C95:AD95"/>
-    <mergeCell ref="C96:AD96"/>
-    <mergeCell ref="C97:AD97"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
